--- a/nmadb/479719.xlsx
+++ b/nmadb/479719.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="346">
   <si>
     <t>study year</t>
   </si>
@@ -24,27 +24,18 @@
     <t>study name</t>
   </si>
   <si>
-    <t>Study id</t>
-  </si>
-  <si>
     <t>t1</t>
   </si>
   <si>
     <t>t2</t>
   </si>
   <si>
-    <t>OR</t>
-  </si>
-  <si>
     <t>CIL</t>
   </si>
   <si>
     <t>CIH</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>Benefit</t>
   </si>
   <si>
@@ -2129,6 +2120,18 @@
   </si>
   <si>
     <t>Blickle JF 2009</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>effect=OR</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
   </si>
 </sst>
 </file>
@@ -2305,7 +2308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2354,6 +2357,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2651,11 +2667,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" style="34"/>
+    <col min="9" max="9" width="11.42578125" style="29"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="51.75">
       <c r="A1" s="14" t="s">
@@ -2664,36 +2684,36 @@
       <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="15" t="s">
-        <v>8</v>
+        <v>345</v>
       </c>
       <c r="J1" s="15"/>
       <c r="K1" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N1" s="17"/>
       <c r="O1" s="3"/>
@@ -2705,9 +2725,9 @@
         <v>2006</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5">
+        <v>9</v>
+      </c>
+      <c r="C2" s="31">
         <v>1</v>
       </c>
       <c r="D2" s="5">
@@ -2725,17 +2745,20 @@
       <c r="H2" s="5">
         <v>0.5</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="28">
+        <f>(H2-G2)/(1.96^2)</f>
+        <v>6.5077051228654731E-2</v>
+      </c>
       <c r="J2" s="5"/>
       <c r="K2" s="1"/>
       <c r="L2" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -2746,9 +2769,9 @@
         <v>2004</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5">
+        <v>12</v>
+      </c>
+      <c r="C3" s="31">
         <v>2</v>
       </c>
       <c r="D3" s="5">
@@ -2766,7 +2789,10 @@
       <c r="H3" s="5">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="28">
+        <f>(H3-G3)/(1.96^2)</f>
+        <v>0.11974177426072473</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="1"/>
       <c r="L3" s="8"/>
@@ -2774,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -2785,9 +2811,9 @@
         <v>2008</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5">
+        <v>14</v>
+      </c>
+      <c r="C4" s="31">
         <v>3</v>
       </c>
       <c r="D4" s="5">
@@ -2805,7 +2831,10 @@
       <c r="H4" s="5">
         <v>19.43</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="28">
+        <f t="shared" ref="I4:I67" si="0">(H4-G4)/(1.96^2)</f>
+        <v>4.6230737192836315</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="1"/>
       <c r="L4" s="8"/>
@@ -2813,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2822,7 +2851,9 @@
     <row r="5" spans="1:17">
       <c r="A5" s="1"/>
       <c r="B5" s="26"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="32">
+        <v>3</v>
+      </c>
       <c r="D5" s="5">
         <v>103</v>
       </c>
@@ -2838,15 +2869,20 @@
       <c r="H5" s="5">
         <v>4.7300000000000004</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="28">
+        <f t="shared" si="0"/>
+        <v>1.1453561016243234</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="8"/>
       <c r="M5" s="9">
         <v>3</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -2857,9 +2893,9 @@
         <v>2007</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5">
+        <v>17</v>
+      </c>
+      <c r="C6" s="31">
         <v>4</v>
       </c>
       <c r="D6" s="5">
@@ -2877,7 +2913,10 @@
       <c r="H6" s="5">
         <v>0.72</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="28">
+        <f t="shared" si="0"/>
+        <v>8.5901707621824239E-2</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="1"/>
       <c r="L6" s="8"/>
@@ -2885,7 +2924,7 @@
         <v>4</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -2896,9 +2935,9 @@
         <v>2008</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5">
+        <v>19</v>
+      </c>
+      <c r="C7" s="31">
         <v>5</v>
       </c>
       <c r="D7" s="5">
@@ -2916,7 +2955,10 @@
       <c r="H7" s="5">
         <v>0.89</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="28">
+        <f t="shared" si="0"/>
+        <v>0.16139108704706373</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="1"/>
       <c r="L7" s="8"/>
@@ -2924,7 +2966,7 @@
         <v>5</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -2933,7 +2975,9 @@
     <row r="8" spans="1:17">
       <c r="A8" s="1"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="32">
+        <v>5</v>
+      </c>
       <c r="D8" s="5">
         <v>0</v>
       </c>
@@ -2949,7 +2993,10 @@
       <c r="H8" s="5">
         <v>0.64</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="28">
+        <f t="shared" si="0"/>
+        <v>0.11713869221157852</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="8"/>
@@ -2957,7 +3004,7 @@
         <v>6</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -2966,7 +3013,9 @@
     <row r="9" spans="1:17">
       <c r="A9" s="1"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="32">
+        <v>5</v>
+      </c>
       <c r="D9" s="5">
         <v>23</v>
       </c>
@@ -2982,7 +3031,10 @@
       <c r="H9" s="5">
         <v>1.29</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="28">
+        <f t="shared" si="0"/>
+        <v>0.23427738442315704</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="10"/>
@@ -2990,7 +3042,7 @@
         <v>7</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -3001,9 +3053,9 @@
         <v>2010</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="5">
+        <v>23</v>
+      </c>
+      <c r="C10" s="31">
         <v>6</v>
       </c>
       <c r="D10" s="5">
@@ -3021,7 +3073,10 @@
       <c r="H10" s="5">
         <v>1.9</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="28">
+        <f t="shared" si="0"/>
+        <v>0.28894210745522697</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -3029,7 +3084,7 @@
         <v>8</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -3040,9 +3095,9 @@
         <v>2007</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5">
+        <v>25</v>
+      </c>
+      <c r="C11" s="31">
         <v>7</v>
       </c>
       <c r="D11" s="5">
@@ -3060,7 +3115,10 @@
       <c r="H11" s="5">
         <v>7.06</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="28">
+        <f t="shared" si="0"/>
+        <v>1.801332778009163</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -3068,7 +3126,7 @@
         <v>9</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -3079,9 +3137,9 @@
         <v>2006</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="5">
+        <v>27</v>
+      </c>
+      <c r="C12" s="31">
         <v>8</v>
       </c>
       <c r="D12" s="5">
@@ -3099,7 +3157,10 @@
       <c r="H12" s="5">
         <v>1.95</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="28">
+        <f t="shared" si="0"/>
+        <v>0.25510204081632654</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="1"/>
       <c r="L12" s="4"/>
@@ -3107,7 +3168,7 @@
         <v>10</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -3118,9 +3179,9 @@
         <v>2008</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="5">
+        <v>29</v>
+      </c>
+      <c r="C13" s="31">
         <v>9</v>
       </c>
       <c r="D13" s="5">
@@ -3138,7 +3199,10 @@
       <c r="H13" s="5">
         <v>6.35</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="28">
+        <f t="shared" si="0"/>
+        <v>1.3197625989171178</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -3146,7 +3210,7 @@
         <v>11</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -3157,9 +3221,9 @@
         <v>2001</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="5">
+        <v>31</v>
+      </c>
+      <c r="C14" s="31">
         <v>10</v>
       </c>
       <c r="D14" s="5">
@@ -3177,7 +3241,10 @@
       <c r="H14" s="5">
         <v>17.260000000000002</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="28">
+        <f t="shared" si="0"/>
+        <v>3.5558100791336953</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -3185,7 +3252,7 @@
         <v>12</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -3196,9 +3263,9 @@
         <v>2009</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="5">
+        <v>33</v>
+      </c>
+      <c r="C15" s="31">
         <v>11</v>
       </c>
       <c r="D15" s="5">
@@ -3216,7 +3283,10 @@
       <c r="H15" s="5">
         <v>20.02</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="28">
+        <f t="shared" si="0"/>
+        <v>5.057788421491046</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3224,7 +3294,7 @@
         <v>13</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -3235,9 +3305,9 @@
         <v>2010</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="5">
+        <v>35</v>
+      </c>
+      <c r="C16" s="31">
         <v>12</v>
       </c>
       <c r="D16" s="5">
@@ -3255,7 +3325,10 @@
       <c r="H16" s="5">
         <v>3.41</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="28">
+        <f t="shared" si="0"/>
+        <v>0.6559766763848397</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -3263,7 +3336,7 @@
         <v>14</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -3274,9 +3347,9 @@
         <v>2002</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="5">
+        <v>37</v>
+      </c>
+      <c r="C17" s="31">
         <v>13</v>
       </c>
       <c r="D17" s="5">
@@ -3294,7 +3367,10 @@
       <c r="H17" s="5">
         <v>1.46</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="28">
+        <f t="shared" si="0"/>
+        <v>0.25510204081632654</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3302,13 +3378,15 @@
         <v>15</v>
       </c>
       <c r="N17" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="32">
+        <v>13</v>
+      </c>
       <c r="D18" s="5">
         <v>1</v>
       </c>
@@ -3324,7 +3402,10 @@
       <c r="H18" s="5">
         <v>0.34</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="28">
+        <f t="shared" si="0"/>
+        <v>6.2473969179508551E-2</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3332,13 +3413,15 @@
         <v>16</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="32">
+        <v>13</v>
+      </c>
       <c r="D19" s="5">
         <v>2</v>
       </c>
@@ -3354,7 +3437,10 @@
       <c r="H19" s="5">
         <v>0.41</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="28">
+        <f t="shared" si="0"/>
+        <v>7.5489379425239478E-2</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3362,7 +3448,7 @@
         <v>17</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -3370,9 +3456,9 @@
         <v>2002</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="5">
+        <v>41</v>
+      </c>
+      <c r="C20" s="31">
         <v>14</v>
       </c>
       <c r="D20" s="5">
@@ -3390,7 +3476,10 @@
       <c r="H20" s="5">
         <v>3.83</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="28">
+        <f t="shared" si="0"/>
+        <v>0.59870887130362349</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3398,7 +3487,7 @@
         <v>18</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -3406,9 +3495,9 @@
         <v>2009</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="5">
+        <v>43</v>
+      </c>
+      <c r="C21" s="31">
         <v>15</v>
       </c>
       <c r="D21" s="5">
@@ -3426,7 +3515,10 @@
       <c r="H21" s="5">
         <v>3.83</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="28">
+        <f t="shared" si="0"/>
+        <v>0.55185339441899217</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3434,13 +3526,15 @@
         <v>19</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="32">
+        <v>15</v>
+      </c>
       <c r="D22" s="5">
         <v>108</v>
       </c>
@@ -3456,7 +3550,10 @@
       <c r="H22" s="5">
         <v>17.420000000000002</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="28">
+        <f t="shared" si="0"/>
+        <v>3.4777176176593096</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -3464,13 +3561,15 @@
         <v>20</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="32">
+        <v>15</v>
+      </c>
       <c r="D23" s="5">
         <v>106</v>
       </c>
@@ -3486,7 +3585,10 @@
       <c r="H23" s="5">
         <v>6.95</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="28">
+        <f t="shared" si="0"/>
+        <v>1.4030612244897962</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -3494,7 +3596,7 @@
         <v>21</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -3502,9 +3604,9 @@
         <v>2010</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="5">
+        <v>47</v>
+      </c>
+      <c r="C24" s="31">
         <v>16</v>
       </c>
       <c r="D24" s="5">
@@ -3522,7 +3624,10 @@
       <c r="H24" s="5">
         <v>1.6</v>
       </c>
-      <c r="I24" s="1"/>
+      <c r="I24" s="28">
+        <f t="shared" si="0"/>
+        <v>0.10932944606414</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -3530,7 +3635,7 @@
         <v>22</v>
       </c>
       <c r="N24" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -3538,9 +3643,9 @@
         <v>2005</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="5">
+        <v>49</v>
+      </c>
+      <c r="C25" s="31">
         <v>17</v>
       </c>
       <c r="D25" s="5">
@@ -3558,7 +3663,10 @@
       <c r="H25" s="5">
         <v>6.63</v>
       </c>
-      <c r="I25" s="1"/>
+      <c r="I25" s="28">
+        <f t="shared" si="0"/>
+        <v>1.3562057476051645</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -3566,7 +3674,7 @@
         <v>23</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -3574,9 +3682,9 @@
         <v>2004</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="5">
+        <v>51</v>
+      </c>
+      <c r="C26" s="31">
         <v>18</v>
       </c>
       <c r="D26" s="5">
@@ -3594,7 +3702,10 @@
       <c r="H26" s="5">
         <v>52.85</v>
       </c>
-      <c r="I26" s="1"/>
+      <c r="I26" s="28">
+        <f t="shared" si="0"/>
+        <v>13.288733860891298</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -3602,7 +3713,7 @@
         <v>24</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3610,9 +3721,9 @@
         <v>2009</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="5">
+        <v>53</v>
+      </c>
+      <c r="C27" s="31">
         <v>19</v>
       </c>
       <c r="D27" s="5">
@@ -3630,7 +3741,10 @@
       <c r="H27" s="5">
         <v>9.51</v>
       </c>
-      <c r="I27" s="1"/>
+      <c r="I27" s="28">
+        <f t="shared" si="0"/>
+        <v>1.8898375676801333</v>
+      </c>
       <c r="J27" s="5"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -3638,7 +3752,7 @@
         <v>25</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3646,9 +3760,9 @@
         <v>2007</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="5">
+        <v>55</v>
+      </c>
+      <c r="C28" s="31">
         <v>20</v>
       </c>
       <c r="D28" s="5">
@@ -3666,7 +3780,10 @@
       <c r="H28" s="5">
         <v>3.94</v>
       </c>
-      <c r="I28" s="1"/>
+      <c r="I28" s="28">
+        <f t="shared" si="0"/>
+        <v>0.56486880466472311</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -3674,7 +3791,7 @@
         <v>26</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3682,9 +3799,9 @@
         <v>2009</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="5">
+        <v>57</v>
+      </c>
+      <c r="C29" s="31">
         <v>21</v>
       </c>
       <c r="D29" s="5">
@@ -3702,7 +3819,10 @@
       <c r="H29" s="5">
         <v>117.89</v>
       </c>
-      <c r="I29" s="1"/>
+      <c r="I29" s="28">
+        <f t="shared" si="0"/>
+        <v>25.981361932528117</v>
+      </c>
       <c r="J29" s="5"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -3710,7 +3830,7 @@
         <v>27</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3718,9 +3838,9 @@
         <v>2011</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="5">
+        <v>59</v>
+      </c>
+      <c r="C30" s="31">
         <v>22</v>
       </c>
       <c r="D30" s="5">
@@ -3738,7 +3858,10 @@
       <c r="H30" s="5">
         <v>5.76</v>
       </c>
-      <c r="I30" s="1"/>
+      <c r="I30" s="28">
+        <f t="shared" si="0"/>
+        <v>0.79394002498958771</v>
+      </c>
       <c r="J30" s="5"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -3746,7 +3869,7 @@
         <v>28</v>
       </c>
       <c r="N30" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -3754,9 +3877,9 @@
         <v>2011</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="5">
+        <v>61</v>
+      </c>
+      <c r="C31" s="31">
         <v>23</v>
       </c>
       <c r="D31" s="5">
@@ -3774,7 +3897,10 @@
       <c r="H31" s="5">
         <v>1.49</v>
       </c>
-      <c r="I31" s="1"/>
+      <c r="I31" s="28">
+        <f t="shared" si="0"/>
+        <v>0.20304039983340277</v>
+      </c>
       <c r="J31" s="5"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3782,7 +3908,7 @@
         <v>29</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3790,9 +3916,9 @@
         <v>2002</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="5">
+        <v>63</v>
+      </c>
+      <c r="C32" s="31">
         <v>24</v>
       </c>
       <c r="D32" s="5">
@@ -3810,7 +3936,10 @@
       <c r="H32" s="5">
         <v>0.86</v>
       </c>
-      <c r="I32" s="1"/>
+      <c r="I32" s="28">
+        <f t="shared" si="0"/>
+        <v>0.12494793835901709</v>
+      </c>
       <c r="J32" s="5"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3818,13 +3947,15 @@
         <v>30</v>
       </c>
       <c r="N32" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1"/>
       <c r="B33" s="27"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="31">
+        <v>24</v>
+      </c>
       <c r="D33" s="5">
         <v>5</v>
       </c>
@@ -3840,7 +3971,10 @@
       <c r="H33" s="5">
         <v>0.93</v>
       </c>
-      <c r="I33" s="1"/>
+      <c r="I33" s="28">
+        <f t="shared" si="0"/>
+        <v>0.13275718450645566</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -3848,13 +3982,15 @@
         <v>31</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1"/>
       <c r="B34" s="27"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="31">
+        <v>24</v>
+      </c>
       <c r="D34" s="5">
         <v>5</v>
       </c>
@@ -3870,7 +4006,10 @@
       <c r="H34" s="5">
         <v>3.3</v>
       </c>
-      <c r="I34" s="1"/>
+      <c r="I34" s="28">
+        <f t="shared" si="0"/>
+        <v>0.48157017909204497</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3878,13 +4017,15 @@
         <v>32</v>
       </c>
       <c r="N34" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1"/>
       <c r="B35" s="27"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="31">
+        <v>24</v>
+      </c>
       <c r="D35" s="5">
         <v>70</v>
       </c>
@@ -3900,7 +4041,10 @@
       <c r="H35" s="5">
         <v>1.66</v>
       </c>
-      <c r="I35" s="1"/>
+      <c r="I35" s="28">
+        <f t="shared" si="0"/>
+        <v>0.24729279466888798</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -3908,13 +4052,15 @@
         <v>33</v>
       </c>
       <c r="N35" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1"/>
       <c r="B36" s="27"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="31">
+        <v>24</v>
+      </c>
       <c r="D36" s="5">
         <v>70</v>
       </c>
@@ -3930,7 +4076,10 @@
       <c r="H36" s="5">
         <v>5.9</v>
       </c>
-      <c r="I36" s="1"/>
+      <c r="I36" s="28">
+        <f t="shared" si="0"/>
+        <v>0.89546022490628918</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -3938,7 +4087,7 @@
         <v>34</v>
       </c>
       <c r="N36" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3946,9 +4095,9 @@
         <v>1999</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="5">
+        <v>69</v>
+      </c>
+      <c r="C37" s="31">
         <v>25</v>
       </c>
       <c r="D37" s="5">
@@ -3966,7 +4115,10 @@
       <c r="H37" s="5">
         <v>5.43</v>
       </c>
-      <c r="I37" s="1"/>
+      <c r="I37" s="28">
+        <f t="shared" si="0"/>
+        <v>0.82257392753019576</v>
+      </c>
       <c r="J37" s="5"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -3974,7 +4126,7 @@
         <v>35</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3982,9 +4134,9 @@
         <v>2009</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="5">
+        <v>71</v>
+      </c>
+      <c r="C38" s="31">
         <v>26</v>
       </c>
       <c r="D38" s="5">
@@ -4002,7 +4154,10 @@
       <c r="H38" s="5">
         <v>10.43</v>
       </c>
-      <c r="I38" s="1"/>
+      <c r="I38" s="28">
+        <f t="shared" si="0"/>
+        <v>1.6503540191586841</v>
+      </c>
       <c r="J38" s="5"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -4010,7 +4165,7 @@
         <v>36</v>
       </c>
       <c r="N38" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -4018,9 +4173,9 @@
         <v>2010</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="5">
+        <v>73</v>
+      </c>
+      <c r="C39" s="31">
         <v>27</v>
       </c>
       <c r="D39" s="5">
@@ -4038,7 +4193,10 @@
       <c r="H39" s="5">
         <v>32.659999999999997</v>
       </c>
-      <c r="I39" s="1"/>
+      <c r="I39" s="28">
+        <f t="shared" si="0"/>
+        <v>8.423573511037068</v>
+      </c>
       <c r="J39" s="5"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -4046,13 +4204,15 @@
         <v>37</v>
       </c>
       <c r="N39" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1"/>
       <c r="B40" s="27"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="32">
+        <v>27</v>
+      </c>
       <c r="D40" s="5">
         <v>114</v>
       </c>
@@ -4068,7 +4228,10 @@
       <c r="H40" s="5">
         <v>5.17</v>
       </c>
-      <c r="I40" s="1"/>
+      <c r="I40" s="28">
+        <f t="shared" si="0"/>
+        <v>0.93971261974177434</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4076,7 +4239,7 @@
         <v>38</v>
       </c>
       <c r="N40" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -4084,9 +4247,9 @@
         <v>2007</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="5">
+        <v>76</v>
+      </c>
+      <c r="C41" s="31">
         <v>28</v>
       </c>
       <c r="D41" s="5">
@@ -4104,7 +4267,10 @@
       <c r="H41" s="5">
         <v>81.02</v>
       </c>
-      <c r="I41" s="1"/>
+      <c r="I41" s="28">
+        <f t="shared" si="0"/>
+        <v>20.132236568096626</v>
+      </c>
       <c r="J41" s="5"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -4112,7 +4278,7 @@
         <v>39</v>
       </c>
       <c r="N41" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -4120,9 +4286,9 @@
         <v>2011</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="5">
+        <v>78</v>
+      </c>
+      <c r="C42" s="31">
         <v>29</v>
       </c>
       <c r="D42" s="5">
@@ -4140,7 +4306,10 @@
       <c r="H42" s="5">
         <v>4.54</v>
       </c>
-      <c r="I42" s="1"/>
+      <c r="I42" s="28">
+        <f t="shared" si="0"/>
+        <v>0.75229071220324872</v>
+      </c>
       <c r="J42" s="5"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -4148,7 +4317,7 @@
         <v>40</v>
       </c>
       <c r="N42" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -4156,9 +4325,9 @@
         <v>2002</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="5">
+        <v>80</v>
+      </c>
+      <c r="C43" s="31">
         <v>30</v>
       </c>
       <c r="D43" s="5">
@@ -4176,7 +4345,10 @@
       <c r="H43" s="5">
         <v>5.28</v>
       </c>
-      <c r="I43" s="1"/>
+      <c r="I43" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0516451478550606</v>
+      </c>
       <c r="J43" s="5"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -4184,7 +4356,7 @@
         <v>41</v>
       </c>
       <c r="N43" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -4192,9 +4364,9 @@
         <v>2002</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="5">
+        <v>82</v>
+      </c>
+      <c r="C44" s="31">
         <v>31</v>
       </c>
       <c r="D44" s="5">
@@ -4212,7 +4384,10 @@
       <c r="H44" s="5">
         <v>3.5</v>
       </c>
-      <c r="I44" s="1"/>
+      <c r="I44" s="28">
+        <f t="shared" si="0"/>
+        <v>0.56226572261557695</v>
+      </c>
       <c r="J44" s="5"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -4220,7 +4395,7 @@
         <v>42</v>
       </c>
       <c r="N44" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -4228,9 +4403,9 @@
         <v>2005</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="5">
+        <v>84</v>
+      </c>
+      <c r="C45" s="31">
         <v>32</v>
       </c>
       <c r="D45" s="5">
@@ -4248,7 +4423,10 @@
       <c r="H45" s="5">
         <v>2.71</v>
       </c>
-      <c r="I45" s="1"/>
+      <c r="I45" s="28">
+        <f t="shared" si="0"/>
+        <v>0.35922532278217412</v>
+      </c>
       <c r="J45" s="5"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -4256,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="N45" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -4264,9 +4442,9 @@
         <v>2011</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="5">
+        <v>86</v>
+      </c>
+      <c r="C46" s="31">
         <v>33</v>
       </c>
       <c r="D46" s="5">
@@ -4284,7 +4462,10 @@
       <c r="H46" s="5">
         <v>8.94</v>
       </c>
-      <c r="I46" s="1"/>
+      <c r="I46" s="28">
+        <f t="shared" si="0"/>
+        <v>1.8403790087463556</v>
+      </c>
       <c r="J46" s="5"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -4292,7 +4473,7 @@
         <v>44</v>
       </c>
       <c r="N46" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -4300,9 +4481,9 @@
         <v>2010</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="5">
+        <v>88</v>
+      </c>
+      <c r="C47" s="31">
         <v>34</v>
       </c>
       <c r="D47" s="5">
@@ -4320,7 +4501,10 @@
       <c r="H47" s="5">
         <v>1.03</v>
       </c>
-      <c r="I47" s="1"/>
+      <c r="I47" s="28">
+        <f t="shared" si="0"/>
+        <v>0.16659725114535612</v>
+      </c>
       <c r="J47" s="5"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -4328,13 +4512,15 @@
         <v>45</v>
       </c>
       <c r="N47" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1"/>
       <c r="B48" s="27"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="32">
+        <v>34</v>
+      </c>
       <c r="D48" s="5">
         <v>35</v>
       </c>
@@ -4350,7 +4536,10 @@
       <c r="H48" s="5">
         <v>0.31</v>
       </c>
-      <c r="I48" s="1"/>
+      <c r="I48" s="28">
+        <f t="shared" si="0"/>
+        <v>4.9458558933777597E-2</v>
+      </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -4358,13 +4547,15 @@
         <v>46</v>
       </c>
       <c r="N48" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1"/>
       <c r="B49" s="27"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="32">
+        <v>34</v>
+      </c>
       <c r="D49" s="5">
         <v>11</v>
       </c>
@@ -4380,7 +4571,10 @@
       <c r="H49" s="5">
         <v>0.47</v>
       </c>
-      <c r="I49" s="1"/>
+      <c r="I49" s="28">
+        <f t="shared" si="0"/>
+        <v>7.2886297376093298E-2</v>
+      </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -4388,7 +4582,7 @@
         <v>47</v>
       </c>
       <c r="N49" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -4396,9 +4590,9 @@
         <v>2009</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="5">
+        <v>92</v>
+      </c>
+      <c r="C50" s="31">
         <v>35</v>
       </c>
       <c r="D50" s="5">
@@ -4416,7 +4610,10 @@
       <c r="H50" s="5">
         <v>10.61</v>
       </c>
-      <c r="I50" s="1"/>
+      <c r="I50" s="28">
+        <f t="shared" si="0"/>
+        <v>1.8716159933361101</v>
+      </c>
       <c r="J50" s="5"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -4424,13 +4621,15 @@
         <v>48</v>
       </c>
       <c r="N50" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="C51" s="32">
+        <v>35</v>
+      </c>
       <c r="D51" s="5">
         <v>117</v>
       </c>
@@ -4446,7 +4645,10 @@
       <c r="H51" s="5">
         <v>1.94</v>
       </c>
-      <c r="I51" s="1"/>
+      <c r="I51" s="28">
+        <f t="shared" si="0"/>
+        <v>0.26291128696376509</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4454,13 +4656,15 @@
         <v>49</v>
       </c>
       <c r="N51" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="32">
+        <v>35</v>
+      </c>
       <c r="D52" s="5">
         <v>105</v>
       </c>
@@ -4476,7 +4680,10 @@
       <c r="H52" s="5">
         <v>0.39</v>
       </c>
-      <c r="I52" s="1"/>
+      <c r="I52" s="28">
+        <f t="shared" si="0"/>
+        <v>6.7680133277800925E-2</v>
+      </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -4484,7 +4691,7 @@
         <v>50</v>
       </c>
       <c r="N52" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -4492,9 +4699,9 @@
         <v>2009</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="5">
+        <v>96</v>
+      </c>
+      <c r="C53" s="31">
         <v>36</v>
       </c>
       <c r="D53" s="5">
@@ -4512,7 +4719,10 @@
       <c r="H53" s="5">
         <v>5.86</v>
       </c>
-      <c r="I53" s="1"/>
+      <c r="I53" s="28">
+        <f t="shared" si="0"/>
+        <v>1.3145564348188259</v>
+      </c>
       <c r="J53" s="5"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -4520,13 +4730,15 @@
         <v>51</v>
       </c>
       <c r="N53" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1"/>
       <c r="B54" s="27"/>
-      <c r="C54" s="1"/>
+      <c r="C54" s="31">
+        <v>36</v>
+      </c>
       <c r="D54" s="5">
         <v>39</v>
       </c>
@@ -4542,7 +4754,10 @@
       <c r="H54" s="5">
         <v>13.35</v>
       </c>
-      <c r="I54" s="1"/>
+      <c r="I54" s="28">
+        <f t="shared" si="0"/>
+        <v>2.9753227821740942</v>
+      </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -4550,13 +4765,15 @@
         <v>52</v>
       </c>
       <c r="N54" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1"/>
       <c r="B55" s="27"/>
-      <c r="C55" s="1"/>
+      <c r="C55" s="31">
+        <v>36</v>
+      </c>
       <c r="D55" s="5">
         <v>9</v>
       </c>
@@ -4572,7 +4789,10 @@
       <c r="H55" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I55" s="1"/>
+      <c r="I55" s="28">
+        <f t="shared" si="0"/>
+        <v>0.25510204081632654</v>
+      </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -4580,7 +4800,7 @@
         <v>53</v>
       </c>
       <c r="N55" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -4588,9 +4808,9 @@
         <v>2008</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="5">
+        <v>100</v>
+      </c>
+      <c r="C56" s="31">
         <v>37</v>
       </c>
       <c r="D56" s="5">
@@ -4608,7 +4828,10 @@
       <c r="H56" s="5">
         <v>0.49</v>
       </c>
-      <c r="I56" s="1"/>
+      <c r="I56" s="28">
+        <f t="shared" si="0"/>
+        <v>8.5901707621824239E-2</v>
+      </c>
       <c r="J56" s="5"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -4616,7 +4839,7 @@
         <v>54</v>
       </c>
       <c r="N56" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -4624,9 +4847,9 @@
         <v>2008</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" s="5">
+        <v>102</v>
+      </c>
+      <c r="C57" s="31">
         <v>38</v>
       </c>
       <c r="D57" s="5">
@@ -4644,7 +4867,10 @@
       <c r="H57" s="5">
         <v>11.21</v>
       </c>
-      <c r="I57" s="1"/>
+      <c r="I57" s="28">
+        <f t="shared" si="0"/>
+        <v>2.4651187005414412</v>
+      </c>
       <c r="J57" s="5"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -4652,7 +4878,7 @@
         <v>55</v>
       </c>
       <c r="N57" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -4660,9 +4886,9 @@
         <v>2008</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="5">
+        <v>104</v>
+      </c>
+      <c r="C58" s="31">
         <v>39</v>
       </c>
       <c r="D58" s="5">
@@ -4680,7 +4906,10 @@
       <c r="H58" s="5">
         <v>3.13</v>
       </c>
-      <c r="I58" s="1"/>
+      <c r="I58" s="28">
+        <f t="shared" si="0"/>
+        <v>0.51280716368179924</v>
+      </c>
       <c r="J58" s="5"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -4688,7 +4917,7 @@
         <v>56</v>
       </c>
       <c r="N58" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -4696,9 +4925,9 @@
         <v>2007</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="5">
+        <v>106</v>
+      </c>
+      <c r="C59" s="31">
         <v>40</v>
       </c>
       <c r="D59" s="5">
@@ -4716,7 +4945,10 @@
       <c r="H59" s="5">
         <v>0.64</v>
       </c>
-      <c r="I59" s="1"/>
+      <c r="I59" s="28">
+        <f t="shared" si="0"/>
+        <v>0.10152019991670139</v>
+      </c>
       <c r="J59" s="5"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -4724,13 +4956,15 @@
         <v>57</v>
       </c>
       <c r="N59" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="C60" s="32">
+        <v>40</v>
+      </c>
       <c r="D60" s="5">
         <v>11</v>
       </c>
@@ -4746,7 +4980,10 @@
       <c r="H60" s="5">
         <v>1.57</v>
       </c>
-      <c r="I60" s="1"/>
+      <c r="I60" s="28">
+        <f t="shared" si="0"/>
+        <v>0.24208663057059562</v>
+      </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -4754,13 +4991,15 @@
         <v>58</v>
       </c>
       <c r="N60" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="C61" s="32">
+        <v>40</v>
+      </c>
       <c r="D61" s="5">
         <v>113</v>
       </c>
@@ -4776,7 +5015,10 @@
       <c r="H61" s="5">
         <v>4</v>
       </c>
-      <c r="I61" s="1"/>
+      <c r="I61" s="28">
+        <f t="shared" si="0"/>
+        <v>0.63254893794252398</v>
+      </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -4784,7 +5026,7 @@
         <v>59</v>
       </c>
       <c r="N61" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4792,9 +5034,9 @@
         <v>2006</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="5">
+        <v>110</v>
+      </c>
+      <c r="C62" s="31">
         <v>41</v>
       </c>
       <c r="D62" s="5">
@@ -4812,7 +5054,10 @@
       <c r="H62" s="5">
         <v>0.49</v>
       </c>
-      <c r="I62" s="1"/>
+      <c r="I62" s="28">
+        <f t="shared" si="0"/>
+        <v>8.8504789670970432E-2</v>
+      </c>
       <c r="J62" s="5"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -4820,7 +5065,7 @@
         <v>60</v>
       </c>
       <c r="N62" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4828,9 +5073,9 @@
         <v>2006</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="C63" s="5">
+        <v>112</v>
+      </c>
+      <c r="C63" s="31">
         <v>42</v>
       </c>
       <c r="D63" s="5">
@@ -4848,7 +5093,10 @@
       <c r="H63" s="5">
         <v>1.64</v>
       </c>
-      <c r="I63" s="1"/>
+      <c r="I63" s="28">
+        <f t="shared" si="0"/>
+        <v>0.28113286130778842</v>
+      </c>
       <c r="J63" s="5"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -4856,7 +5104,7 @@
         <v>61</v>
       </c>
       <c r="N63" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4864,9 +5112,9 @@
         <v>2006</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="5">
+        <v>114</v>
+      </c>
+      <c r="C64" s="31">
         <v>43</v>
       </c>
       <c r="D64" s="5">
@@ -4884,7 +5132,10 @@
       <c r="H64" s="5">
         <v>1.62</v>
       </c>
-      <c r="I64" s="1"/>
+      <c r="I64" s="28">
+        <f t="shared" si="0"/>
+        <v>0.25249895876718037</v>
+      </c>
       <c r="J64" s="5"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -4892,13 +5143,15 @@
         <v>62</v>
       </c>
       <c r="N64" s="21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1"/>
       <c r="B65" s="27"/>
-      <c r="C65" s="1"/>
+      <c r="C65" s="32">
+        <v>43</v>
+      </c>
       <c r="D65" s="5">
         <v>10</v>
       </c>
@@ -4914,7 +5167,10 @@
       <c r="H65" s="5">
         <v>0.68</v>
       </c>
-      <c r="I65" s="1"/>
+      <c r="I65" s="28">
+        <f t="shared" si="0"/>
+        <v>0.11193252811328615</v>
+      </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -4922,13 +5178,15 @@
         <v>63</v>
       </c>
       <c r="N65" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1"/>
       <c r="B66" s="27"/>
-      <c r="C66" s="1"/>
+      <c r="C66" s="32">
+        <v>43</v>
+      </c>
       <c r="D66" s="5">
         <v>1</v>
       </c>
@@ -4944,7 +5202,10 @@
       <c r="H66" s="5">
         <v>0.66</v>
       </c>
-      <c r="I66" s="1"/>
+      <c r="I66" s="28">
+        <f t="shared" si="0"/>
+        <v>0.10932944606413997</v>
+      </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -4952,7 +5213,7 @@
         <v>64</v>
       </c>
       <c r="N66" s="23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4960,9 +5221,9 @@
         <v>2006</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="5">
+        <v>118</v>
+      </c>
+      <c r="C67" s="31">
         <v>44</v>
       </c>
       <c r="D67" s="5">
@@ -4980,7 +5241,10 @@
       <c r="H67" s="5">
         <v>4.3499999999999996</v>
       </c>
-      <c r="I67" s="1"/>
+      <c r="I67" s="28">
+        <f t="shared" si="0"/>
+        <v>0.6794044148271553</v>
+      </c>
       <c r="J67" s="5"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -4988,7 +5252,7 @@
         <v>65</v>
       </c>
       <c r="N67" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4996,9 +5260,9 @@
         <v>2004</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C68" s="5">
+        <v>120</v>
+      </c>
+      <c r="C68" s="31">
         <v>45</v>
       </c>
       <c r="D68" s="5">
@@ -5016,7 +5280,10 @@
       <c r="H68" s="5">
         <v>3.1</v>
       </c>
-      <c r="I68" s="1"/>
+      <c r="I68" s="28">
+        <f t="shared" ref="I68:I131" si="1">(H68-G68)/(1.96^2)</f>
+        <v>0.59610578925447733</v>
+      </c>
       <c r="J68" s="5"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -5030,9 +5297,9 @@
         <v>2004</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" s="5">
+        <v>121</v>
+      </c>
+      <c r="C69" s="31">
         <v>46</v>
       </c>
       <c r="D69" s="5">
@@ -5050,7 +5317,10 @@
       <c r="H69" s="5">
         <v>9.23</v>
       </c>
-      <c r="I69" s="1"/>
+      <c r="I69" s="28">
+        <f t="shared" si="1"/>
+        <v>1.7831112036651398</v>
+      </c>
       <c r="J69" s="5"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -5064,9 +5334,9 @@
         <v>2006</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C70" s="5">
+        <v>122</v>
+      </c>
+      <c r="C70" s="31">
         <v>47</v>
       </c>
       <c r="D70" s="5">
@@ -5084,7 +5354,10 @@
       <c r="H70" s="5">
         <v>1.02</v>
       </c>
-      <c r="I70" s="1"/>
+      <c r="I70" s="28">
+        <f t="shared" si="1"/>
+        <v>0.16920033319450231</v>
+      </c>
       <c r="J70" s="5"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -5098,9 +5371,9 @@
         <v>2005</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" s="5">
+        <v>123</v>
+      </c>
+      <c r="C71" s="31">
         <v>48</v>
       </c>
       <c r="D71" s="5">
@@ -5118,7 +5391,10 @@
       <c r="H71" s="5">
         <v>6.87</v>
       </c>
-      <c r="I71" s="1"/>
+      <c r="I71" s="28">
+        <f t="shared" si="1"/>
+        <v>1.4811536859641818</v>
+      </c>
       <c r="J71" s="5"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -5132,9 +5408,9 @@
         <v>2006</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="5">
+        <v>124</v>
+      </c>
+      <c r="C72" s="31">
         <v>49</v>
       </c>
       <c r="D72" s="5">
@@ -5152,7 +5428,10 @@
       <c r="H72" s="5">
         <v>5.46</v>
       </c>
-      <c r="I72" s="1"/>
+      <c r="I72" s="28">
+        <f t="shared" si="1"/>
+        <v>0.9839650145772596</v>
+      </c>
       <c r="J72" s="5"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -5160,7 +5439,7 @@
         <v>70</v>
       </c>
       <c r="N72" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -5168,9 +5447,9 @@
         <v>2010</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="5">
+        <v>126</v>
+      </c>
+      <c r="C73" s="31">
         <v>50</v>
       </c>
       <c r="D73" s="5">
@@ -5188,7 +5467,10 @@
       <c r="H73" s="5">
         <v>9.7899999999999991</v>
       </c>
-      <c r="I73" s="1"/>
+      <c r="I73" s="28">
+        <f t="shared" si="1"/>
+        <v>2.204810495626822</v>
+      </c>
       <c r="J73" s="5"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -5196,7 +5478,7 @@
         <v>71</v>
       </c>
       <c r="N73" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -5204,9 +5486,9 @@
         <v>2011</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" s="5">
+        <v>128</v>
+      </c>
+      <c r="C74" s="31">
         <v>51</v>
       </c>
       <c r="D74" s="5">
@@ -5224,7 +5506,10 @@
       <c r="H74" s="5">
         <v>2.37</v>
       </c>
-      <c r="I74" s="1"/>
+      <c r="I74" s="28">
+        <f t="shared" si="1"/>
+        <v>0.23688046647230326</v>
+      </c>
       <c r="J74" s="5"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -5232,7 +5517,7 @@
         <v>72</v>
       </c>
       <c r="N74" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -5240,9 +5525,9 @@
         <v>2010</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75" s="5">
+        <v>130</v>
+      </c>
+      <c r="C75" s="31">
         <v>52</v>
       </c>
       <c r="D75" s="5">
@@ -5260,7 +5545,10 @@
       <c r="H75" s="5">
         <v>35.880000000000003</v>
       </c>
-      <c r="I75" s="1"/>
+      <c r="I75" s="28">
+        <f t="shared" si="1"/>
+        <v>8.4496043315285299</v>
+      </c>
       <c r="J75" s="5"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -5268,7 +5556,7 @@
         <v>73</v>
       </c>
       <c r="N75" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -5276,9 +5564,9 @@
         <v>2010</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="5">
+        <v>132</v>
+      </c>
+      <c r="C76" s="31">
         <v>53</v>
       </c>
       <c r="D76" s="5">
@@ -5296,7 +5584,10 @@
       <c r="H76" s="5">
         <v>15.7</v>
       </c>
-      <c r="I76" s="1"/>
+      <c r="I76" s="28">
+        <f t="shared" si="1"/>
+        <v>3.1939816743023743</v>
+      </c>
       <c r="J76" s="5"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -5304,7 +5595,7 @@
         <v>74</v>
       </c>
       <c r="N76" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -5312,9 +5603,9 @@
         <v>2009</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" s="5">
+        <v>134</v>
+      </c>
+      <c r="C77" s="31">
         <v>54</v>
       </c>
       <c r="D77" s="5">
@@ -5332,7 +5623,10 @@
       <c r="H77" s="5">
         <v>0.19</v>
       </c>
-      <c r="I77" s="1"/>
+      <c r="I77" s="28">
+        <f t="shared" si="1"/>
+        <v>3.6443148688046656E-2</v>
+      </c>
       <c r="J77" s="5"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -5340,7 +5634,7 @@
         <v>75</v>
       </c>
       <c r="N77" s="21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -5348,9 +5642,9 @@
         <v>2009</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="5">
+        <v>136</v>
+      </c>
+      <c r="C78" s="31">
         <v>55</v>
       </c>
       <c r="D78" s="5">
@@ -5368,7 +5662,10 @@
       <c r="H78" s="5">
         <v>0.54</v>
       </c>
-      <c r="I78" s="1"/>
+      <c r="I78" s="28">
+        <f t="shared" si="1"/>
+        <v>8.3298625572678073E-2</v>
+      </c>
       <c r="J78" s="5"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -5376,7 +5673,7 @@
         <v>76</v>
       </c>
       <c r="N78" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -5384,9 +5681,9 @@
         <v>2004</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" s="5">
+        <v>138</v>
+      </c>
+      <c r="C79" s="31">
         <v>56</v>
       </c>
       <c r="D79" s="5">
@@ -5404,7 +5701,10 @@
       <c r="H79" s="5">
         <v>0.26</v>
       </c>
-      <c r="I79" s="1"/>
+      <c r="I79" s="28">
+        <f t="shared" si="1"/>
+        <v>6.2473969179508551E-2</v>
+      </c>
       <c r="J79" s="5"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -5412,13 +5712,15 @@
         <v>77</v>
       </c>
       <c r="N79" s="21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="C80" s="31">
+        <v>56</v>
+      </c>
       <c r="D80" s="5">
         <v>10</v>
       </c>
@@ -5434,7 +5736,10 @@
       <c r="H80" s="5">
         <v>0.64</v>
       </c>
-      <c r="I80" s="1"/>
+      <c r="I80" s="28">
+        <f t="shared" si="1"/>
+        <v>0.13015410245730946</v>
+      </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -5442,13 +5747,15 @@
         <v>78</v>
       </c>
       <c r="N80" s="21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="C81" s="31">
+        <v>56</v>
+      </c>
       <c r="D81" s="5">
         <v>24</v>
       </c>
@@ -5464,7 +5771,10 @@
       <c r="H81" s="5">
         <v>1</v>
       </c>
-      <c r="I81" s="1"/>
+      <c r="I81" s="28">
+        <f t="shared" si="1"/>
+        <v>0.2420866305705956</v>
+      </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -5472,7 +5782,7 @@
         <v>79</v>
       </c>
       <c r="N81" s="21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -5480,9 +5790,9 @@
         <v>2004</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="C82" s="5">
+        <v>142</v>
+      </c>
+      <c r="C82" s="31">
         <v>57</v>
       </c>
       <c r="D82" s="5">
@@ -5500,7 +5810,10 @@
       <c r="H82" s="5">
         <v>3.2</v>
       </c>
-      <c r="I82" s="1"/>
+      <c r="I82" s="28">
+        <f t="shared" si="1"/>
+        <v>0.76530612244897978</v>
+      </c>
       <c r="J82" s="5"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -5508,13 +5821,15 @@
         <v>80</v>
       </c>
       <c r="N82" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1"/>
       <c r="B83" s="27"/>
-      <c r="C83" s="1"/>
+      <c r="C83" s="31">
+        <v>57</v>
+      </c>
       <c r="D83" s="5">
         <v>11</v>
       </c>
@@ -5530,7 +5845,10 @@
       <c r="H83" s="5">
         <v>26.76</v>
       </c>
-      <c r="I83" s="1"/>
+      <c r="I83" s="28">
+        <f t="shared" si="1"/>
+        <v>6.6092253227821747</v>
+      </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -5538,13 +5856,15 @@
         <v>81</v>
       </c>
       <c r="N83" s="21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1"/>
       <c r="B84" s="27"/>
-      <c r="C84" s="1"/>
+      <c r="C84" s="31">
+        <v>57</v>
+      </c>
       <c r="D84" s="5">
         <v>6</v>
       </c>
@@ -5560,7 +5880,10 @@
       <c r="H84" s="5">
         <v>0.69</v>
       </c>
-      <c r="I84" s="1"/>
+      <c r="I84" s="28">
+        <f t="shared" si="1"/>
+        <v>0.17180341524364848</v>
+      </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -5568,7 +5891,7 @@
         <v>82</v>
       </c>
       <c r="N84" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -5576,9 +5899,9 @@
         <v>2011</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="5">
+        <v>146</v>
+      </c>
+      <c r="C85" s="31">
         <v>58</v>
       </c>
       <c r="D85" s="5">
@@ -5596,7 +5919,10 @@
       <c r="H85" s="5">
         <v>5.96</v>
       </c>
-      <c r="I85" s="1"/>
+      <c r="I85" s="28">
+        <f t="shared" si="1"/>
+        <v>0.86682632236568102</v>
+      </c>
       <c r="J85" s="5"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -5610,9 +5936,9 @@
         <v>2009</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" s="5">
+        <v>147</v>
+      </c>
+      <c r="C86" s="31">
         <v>59</v>
       </c>
       <c r="D86" s="5">
@@ -5630,7 +5956,10 @@
       <c r="H86" s="5">
         <v>4.34</v>
       </c>
-      <c r="I86" s="1"/>
+      <c r="I86" s="28">
+        <f t="shared" si="1"/>
+        <v>0.78092461474385677</v>
+      </c>
       <c r="J86" s="5"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -5644,9 +5973,9 @@
         <v>2007</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C87" s="5">
+        <v>148</v>
+      </c>
+      <c r="C87" s="31">
         <v>60</v>
       </c>
       <c r="D87" s="5">
@@ -5664,7 +5993,10 @@
       <c r="H87" s="5">
         <v>8.6300000000000008</v>
       </c>
-      <c r="I87" s="1"/>
+      <c r="I87" s="28">
+        <f t="shared" si="1"/>
+        <v>1.7388588088296546</v>
+      </c>
       <c r="J87" s="5"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -5678,9 +6010,9 @@
         <v>2006</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C88" s="5">
+        <v>149</v>
+      </c>
+      <c r="C88" s="31">
         <v>61</v>
       </c>
       <c r="D88" s="5">
@@ -5698,7 +6030,10 @@
       <c r="H88" s="5">
         <v>1.81</v>
       </c>
-      <c r="I88" s="1"/>
+      <c r="I88" s="28">
+        <f t="shared" si="1"/>
+        <v>0.30976676384839652</v>
+      </c>
       <c r="J88" s="5"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -5712,9 +6047,9 @@
         <v>2003</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C89" s="5">
+        <v>150</v>
+      </c>
+      <c r="C89" s="31">
         <v>62</v>
       </c>
       <c r="D89" s="5">
@@ -5732,7 +6067,10 @@
       <c r="H89" s="5">
         <v>14.62</v>
       </c>
-      <c r="I89" s="1"/>
+      <c r="I89" s="28">
+        <f t="shared" si="1"/>
+        <v>3.3527696793002915</v>
+      </c>
       <c r="J89" s="5"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -5746,9 +6084,9 @@
         <v>2011</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C90" s="5">
+        <v>151</v>
+      </c>
+      <c r="C90" s="31">
         <v>63</v>
       </c>
       <c r="D90" s="5">
@@ -5766,7 +6104,10 @@
       <c r="H90" s="5">
         <v>2.72</v>
       </c>
-      <c r="I90" s="1"/>
+      <c r="I90" s="28">
+        <f t="shared" si="1"/>
+        <v>0.33579758433985851</v>
+      </c>
       <c r="J90" s="5"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -5778,7 +6119,9 @@
     <row r="91" spans="1:14">
       <c r="A91" s="1"/>
       <c r="B91" s="27"/>
-      <c r="C91" s="1"/>
+      <c r="C91" s="31">
+        <v>63</v>
+      </c>
       <c r="D91" s="5">
         <v>13</v>
       </c>
@@ -5794,7 +6137,10 @@
       <c r="H91" s="5">
         <v>0.88</v>
       </c>
-      <c r="I91" s="1"/>
+      <c r="I91" s="28">
+        <f t="shared" si="1"/>
+        <v>0.11453561016243233</v>
+      </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -5806,7 +6152,9 @@
     <row r="92" spans="1:14">
       <c r="A92" s="1"/>
       <c r="B92" s="27"/>
-      <c r="C92" s="1"/>
+      <c r="C92" s="31">
+        <v>63</v>
+      </c>
       <c r="D92" s="5">
         <v>101</v>
       </c>
@@ -5822,7 +6170,10 @@
       <c r="H92" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I92" s="1"/>
+      <c r="I92" s="28">
+        <f t="shared" si="1"/>
+        <v>0.56226572261557695</v>
+      </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -5836,9 +6187,9 @@
         <v>2008</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C93" s="5">
+        <v>152</v>
+      </c>
+      <c r="C93" s="31">
         <v>64</v>
       </c>
       <c r="D93" s="5">
@@ -5856,7 +6207,10 @@
       <c r="H93" s="5">
         <v>1.36</v>
       </c>
-      <c r="I93" s="1"/>
+      <c r="I93" s="28">
+        <f t="shared" si="1"/>
+        <v>0.17180341524364853</v>
+      </c>
       <c r="J93" s="5"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -5870,9 +6224,9 @@
         <v>2011</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C94" s="5">
+        <v>153</v>
+      </c>
+      <c r="C94" s="31">
         <v>65</v>
       </c>
       <c r="D94" s="5">
@@ -5890,7 +6244,10 @@
       <c r="H94" s="5">
         <v>7.53</v>
       </c>
-      <c r="I94" s="1"/>
+      <c r="I94" s="28">
+        <f t="shared" si="1"/>
+        <v>1.197417742607247</v>
+      </c>
       <c r="J94" s="5"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -5904,9 +6261,9 @@
         <v>2008</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95" s="5">
+        <v>154</v>
+      </c>
+      <c r="C95" s="31">
         <v>66</v>
       </c>
       <c r="D95" s="5">
@@ -5924,7 +6281,10 @@
       <c r="H95" s="5">
         <v>18.149999999999999</v>
       </c>
-      <c r="I95" s="1"/>
+      <c r="I95" s="28">
+        <f t="shared" si="1"/>
+        <v>3.745835068721366</v>
+      </c>
       <c r="J95" s="5"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -5938,9 +6298,9 @@
         <v>2004</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C96" s="5">
+        <v>155</v>
+      </c>
+      <c r="C96" s="31">
         <v>67</v>
       </c>
       <c r="D96" s="5">
@@ -5958,7 +6318,10 @@
       <c r="H96" s="5">
         <v>1.36</v>
       </c>
-      <c r="I96" s="1"/>
+      <c r="I96" s="28">
+        <f t="shared" si="1"/>
+        <v>0.31236984589754274</v>
+      </c>
       <c r="J96" s="5"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -5972,9 +6335,9 @@
         <v>2007</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C97" s="5">
+        <v>156</v>
+      </c>
+      <c r="C97" s="31">
         <v>68</v>
       </c>
       <c r="D97" s="5">
@@ -5992,7 +6355,10 @@
       <c r="H97" s="5">
         <v>1.32</v>
       </c>
-      <c r="I97" s="1"/>
+      <c r="I97" s="28">
+        <f t="shared" si="1"/>
+        <v>0.1275510204081633</v>
+      </c>
       <c r="J97" s="5"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -6000,7 +6366,7 @@
         <v>95</v>
       </c>
       <c r="N97" s="21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -6008,9 +6374,9 @@
         <v>2007</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C98" s="5">
+        <v>158</v>
+      </c>
+      <c r="C98" s="31">
         <v>69</v>
       </c>
       <c r="D98" s="5">
@@ -6028,7 +6394,10 @@
       <c r="H98" s="5">
         <v>2.21</v>
       </c>
-      <c r="I98" s="1"/>
+      <c r="I98" s="28">
+        <f t="shared" si="1"/>
+        <v>0.32278217409412746</v>
+      </c>
       <c r="J98" s="5"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -6042,9 +6411,9 @@
         <v>2009</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C99" s="5">
+        <v>159</v>
+      </c>
+      <c r="C99" s="31">
         <v>70</v>
       </c>
       <c r="D99" s="5">
@@ -6062,7 +6431,10 @@
       <c r="H99" s="5">
         <v>66.459999999999994</v>
       </c>
-      <c r="I99" s="1"/>
+      <c r="I99" s="28">
+        <f t="shared" si="1"/>
+        <v>15.165556018325697</v>
+      </c>
       <c r="J99" s="5"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -6076,9 +6448,9 @@
         <v>2009</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C100" s="5">
+        <v>160</v>
+      </c>
+      <c r="C100" s="31">
         <v>71</v>
       </c>
       <c r="D100" s="5">
@@ -6096,7 +6468,10 @@
       <c r="H100" s="5">
         <v>8.41</v>
       </c>
-      <c r="I100" s="1"/>
+      <c r="I100" s="28">
+        <f t="shared" si="1"/>
+        <v>1.4837567680133279</v>
+      </c>
       <c r="J100" s="5"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -6110,9 +6485,9 @@
         <v>2008</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C101" s="5">
+        <v>161</v>
+      </c>
+      <c r="C101" s="31">
         <v>72</v>
       </c>
       <c r="D101" s="5">
@@ -6130,7 +6505,10 @@
       <c r="H101" s="5">
         <v>3.73</v>
       </c>
-      <c r="I101" s="1"/>
+      <c r="I101" s="28">
+        <f t="shared" si="1"/>
+        <v>0.70543523531861729</v>
+      </c>
       <c r="J101" s="5"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -6144,9 +6522,9 @@
         <v>2007</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="C102" s="5">
+        <v>162</v>
+      </c>
+      <c r="C102" s="31">
         <v>73</v>
       </c>
       <c r="D102" s="5">
@@ -6164,7 +6542,10 @@
       <c r="H102" s="5">
         <v>17.5</v>
       </c>
-      <c r="I102" s="1"/>
+      <c r="I102" s="28">
+        <f t="shared" si="1"/>
+        <v>3.4360683048729697</v>
+      </c>
       <c r="J102" s="5"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -6172,7 +6553,7 @@
         <v>100</v>
       </c>
       <c r="N102" s="22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -6180,9 +6561,9 @@
         <v>2009</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C103" s="5">
+        <v>164</v>
+      </c>
+      <c r="C103" s="31">
         <v>74</v>
       </c>
       <c r="D103" s="5">
@@ -6200,7 +6581,10 @@
       <c r="H103" s="5">
         <v>2.95</v>
       </c>
-      <c r="I103" s="1"/>
+      <c r="I103" s="28">
+        <f t="shared" si="1"/>
+        <v>0.4269054560599751</v>
+      </c>
       <c r="J103" s="5"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -6208,13 +6592,15 @@
         <v>101</v>
       </c>
       <c r="N103" s="21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="C104" s="31">
+        <v>74</v>
+      </c>
       <c r="D104" s="5">
         <v>106</v>
       </c>
@@ -6230,7 +6616,10 @@
       <c r="H104" s="5">
         <v>4.08</v>
       </c>
-      <c r="I104" s="1"/>
+      <c r="I104" s="28">
+        <f t="shared" si="1"/>
+        <v>0.5830903790087465</v>
+      </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -6242,7 +6631,9 @@
     <row r="105" spans="1:14">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="C105" s="31">
+        <v>74</v>
+      </c>
       <c r="D105" s="5">
         <v>11</v>
       </c>
@@ -6258,7 +6649,10 @@
       <c r="H105" s="5">
         <v>2.0699999999999998</v>
       </c>
-      <c r="I105" s="1"/>
+      <c r="I105" s="28">
+        <f t="shared" si="1"/>
+        <v>0.29675135360266552</v>
+      </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -6266,7 +6660,7 @@
         <v>103</v>
       </c>
       <c r="N105" s="21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6274,9 +6668,9 @@
         <v>2009</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C106" s="5">
+        <v>167</v>
+      </c>
+      <c r="C106" s="31">
         <v>75</v>
       </c>
       <c r="D106" s="5">
@@ -6294,7 +6688,10 @@
       <c r="H106" s="5">
         <v>122.41</v>
       </c>
-      <c r="I106" s="1"/>
+      <c r="I106" s="28">
+        <f t="shared" si="1"/>
+        <v>31.335901707621826</v>
+      </c>
       <c r="J106" s="5"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -6308,9 +6705,9 @@
         <v>2009</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C107" s="5">
+        <v>53</v>
+      </c>
+      <c r="C107" s="31">
         <v>76</v>
       </c>
       <c r="D107" s="5">
@@ -6328,7 +6725,10 @@
       <c r="H107" s="5">
         <v>9.51</v>
       </c>
-      <c r="I107" s="1"/>
+      <c r="I107" s="28">
+        <f t="shared" si="1"/>
+        <v>1.8898375676801333</v>
+      </c>
       <c r="J107" s="5"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -6336,7 +6736,7 @@
         <v>105</v>
       </c>
       <c r="N107" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6344,9 +6744,9 @@
         <v>2011</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C108" s="5">
+        <v>169</v>
+      </c>
+      <c r="C108" s="31">
         <v>77</v>
       </c>
       <c r="D108" s="5">
@@ -6364,7 +6764,10 @@
       <c r="H108" s="5">
         <v>2.4500000000000002</v>
       </c>
-      <c r="I108" s="1"/>
+      <c r="I108" s="28">
+        <f t="shared" si="1"/>
+        <v>0.49458558933777602</v>
+      </c>
       <c r="J108" s="5"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -6372,7 +6775,7 @@
         <v>106</v>
       </c>
       <c r="N108" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6380,9 +6783,9 @@
         <v>2009</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C109" s="5">
+        <v>171</v>
+      </c>
+      <c r="C109" s="31">
         <v>78</v>
       </c>
       <c r="D109" s="5">
@@ -6400,7 +6803,10 @@
       <c r="H109" s="5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="I109" s="1"/>
+      <c r="I109" s="28">
+        <f t="shared" si="1"/>
+        <v>8.3298625572678073E-2</v>
+      </c>
       <c r="J109" s="5"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -6414,9 +6820,9 @@
         <v>2005</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C110" s="5">
+        <v>172</v>
+      </c>
+      <c r="C110" s="31">
         <v>79</v>
       </c>
       <c r="D110" s="5">
@@ -6434,7 +6840,10 @@
       <c r="H110" s="5">
         <v>12.47</v>
       </c>
-      <c r="I110" s="1"/>
+      <c r="I110" s="28">
+        <f t="shared" si="1"/>
+        <v>2.5614327363598504</v>
+      </c>
       <c r="J110" s="5"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -6442,7 +6851,7 @@
         <v>108</v>
       </c>
       <c r="N110" s="21" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -6450,9 +6859,9 @@
         <v>2010</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C111" s="5">
+        <v>174</v>
+      </c>
+      <c r="C111" s="31">
         <v>80</v>
       </c>
       <c r="D111" s="5">
@@ -6470,7 +6879,10 @@
       <c r="H111" s="5">
         <v>1.21</v>
       </c>
-      <c r="I111" s="1"/>
+      <c r="I111" s="28">
+        <f t="shared" si="1"/>
+        <v>0.14056643065389421</v>
+      </c>
       <c r="J111" s="5"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -6484,9 +6896,9 @@
         <v>2003</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="C112" s="5">
+        <v>175</v>
+      </c>
+      <c r="C112" s="31">
         <v>81</v>
       </c>
       <c r="D112" s="5">
@@ -6504,7 +6916,10 @@
       <c r="H112" s="5">
         <v>10.99</v>
       </c>
-      <c r="I112" s="1"/>
+      <c r="I112" s="28">
+        <f t="shared" si="1"/>
+        <v>1.9575177009579343</v>
+      </c>
       <c r="J112" s="5"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -6518,9 +6933,9 @@
         <v>2010</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C113" s="5">
+        <v>176</v>
+      </c>
+      <c r="C113" s="31">
         <v>82</v>
       </c>
       <c r="D113" s="5">
@@ -6538,7 +6953,10 @@
       <c r="H113" s="5">
         <v>147.91</v>
       </c>
-      <c r="I113" s="1"/>
+      <c r="I113" s="28">
+        <f t="shared" si="1"/>
+        <v>37.877446897126198</v>
+      </c>
       <c r="J113" s="5"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -6546,7 +6964,7 @@
         <v>111</v>
       </c>
       <c r="N113" s="21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -6554,9 +6972,9 @@
         <v>2002</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="C114" s="5">
+        <v>178</v>
+      </c>
+      <c r="C114" s="31">
         <v>83</v>
       </c>
       <c r="D114" s="5">
@@ -6574,7 +6992,10 @@
       <c r="H114" s="5">
         <v>3.18</v>
       </c>
-      <c r="I114" s="1"/>
+      <c r="I114" s="28">
+        <f t="shared" si="1"/>
+        <v>0.59350270720533127</v>
+      </c>
       <c r="J114" s="5"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -6582,7 +7003,7 @@
         <v>112</v>
       </c>
       <c r="N114" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6590,9 +7011,9 @@
         <v>2005</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C115" s="5">
+        <v>180</v>
+      </c>
+      <c r="C115" s="31">
         <v>84</v>
       </c>
       <c r="D115" s="5">
@@ -6610,7 +7031,10 @@
       <c r="H115" s="5">
         <v>10.52</v>
       </c>
-      <c r="I115" s="1"/>
+      <c r="I115" s="28">
+        <f t="shared" si="1"/>
+        <v>2.0928779675135361</v>
+      </c>
       <c r="J115" s="5"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -6618,7 +7042,7 @@
         <v>113</v>
       </c>
       <c r="N115" s="21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -6626,9 +7050,9 @@
         <v>2002</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C116" s="5">
+        <v>182</v>
+      </c>
+      <c r="C116" s="31">
         <v>85</v>
       </c>
       <c r="D116" s="5">
@@ -6646,7 +7070,10 @@
       <c r="H116" s="5">
         <v>0.27</v>
       </c>
-      <c r="I116" s="1"/>
+      <c r="I116" s="28">
+        <f t="shared" si="1"/>
+        <v>4.4252394835485223E-2</v>
+      </c>
       <c r="J116" s="5"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -6654,13 +7081,15 @@
         <v>114</v>
       </c>
       <c r="N116" s="21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
+      <c r="C117" s="31">
+        <v>85</v>
+      </c>
       <c r="D117" s="5">
         <v>0</v>
       </c>
@@ -6676,7 +7105,10 @@
       <c r="H117" s="5">
         <v>0.4</v>
       </c>
-      <c r="I117" s="1"/>
+      <c r="I117" s="28">
+        <f t="shared" si="1"/>
+        <v>6.5077051228654731E-2</v>
+      </c>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -6684,13 +7116,15 @@
         <v>115</v>
       </c>
       <c r="N117" s="21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
+      <c r="C118" s="31">
+        <v>85</v>
+      </c>
       <c r="D118" s="5">
         <v>0</v>
       </c>
@@ -6706,7 +7140,10 @@
       <c r="H118" s="5">
         <v>0.16</v>
       </c>
-      <c r="I118" s="1"/>
+      <c r="I118" s="28">
+        <f t="shared" si="1"/>
+        <v>2.6030820491461895E-2</v>
+      </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -6714,13 +7151,15 @@
         <v>116</v>
       </c>
       <c r="N118" s="21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
+      <c r="C119" s="31">
+        <v>85</v>
+      </c>
       <c r="D119" s="5">
         <v>7</v>
       </c>
@@ -6736,7 +7175,10 @@
       <c r="H119" s="5">
         <v>2.31</v>
       </c>
-      <c r="I119" s="1"/>
+      <c r="I119" s="28">
+        <f t="shared" si="1"/>
+        <v>0.35401915868388178</v>
+      </c>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -6744,13 +7186,15 @@
         <v>117</v>
       </c>
       <c r="N119" s="21" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
+      <c r="C120" s="31">
+        <v>85</v>
+      </c>
       <c r="D120" s="5">
         <v>7</v>
       </c>
@@ -6766,7 +7210,10 @@
       <c r="H120" s="5">
         <v>0.92</v>
       </c>
-      <c r="I120" s="1"/>
+      <c r="I120" s="28">
+        <f t="shared" si="1"/>
+        <v>0.14577259475218662</v>
+      </c>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -6774,13 +7221,15 @@
         <v>118</v>
       </c>
       <c r="N120" s="21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
+      <c r="C121" s="31">
+        <v>85</v>
+      </c>
       <c r="D121" s="5">
         <v>1</v>
       </c>
@@ -6796,7 +7245,10 @@
       <c r="H121" s="5">
         <v>0.62</v>
       </c>
-      <c r="I121" s="1"/>
+      <c r="I121" s="28">
+        <f t="shared" si="1"/>
+        <v>9.6314035818409E-2</v>
+      </c>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
@@ -6804,7 +7256,7 @@
         <v>119</v>
       </c>
       <c r="N121" s="21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6812,9 +7264,9 @@
         <v>2009</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C122" s="5">
+        <v>189</v>
+      </c>
+      <c r="C122" s="31">
         <v>86</v>
       </c>
       <c r="D122" s="5">
@@ -6832,7 +7284,10 @@
       <c r="H122" s="5">
         <v>6.98</v>
       </c>
-      <c r="I122" s="1"/>
+      <c r="I122" s="28">
+        <f t="shared" si="1"/>
+        <v>1.0464389837567682</v>
+      </c>
       <c r="J122" s="5"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
@@ -6840,7 +7295,7 @@
         <v>120</v>
       </c>
       <c r="N122" s="21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6848,9 +7303,9 @@
         <v>2003</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C123" s="5">
+        <v>191</v>
+      </c>
+      <c r="C123" s="31">
         <v>87</v>
       </c>
       <c r="D123" s="5">
@@ -6868,7 +7323,10 @@
       <c r="H123" s="5">
         <v>3.7</v>
       </c>
-      <c r="I123" s="1"/>
+      <c r="I123" s="28">
+        <f t="shared" si="1"/>
+        <v>0.5987088713036236</v>
+      </c>
       <c r="J123" s="5"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -6876,13 +7334,15 @@
         <v>121</v>
       </c>
       <c r="N123" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+      <c r="C124" s="31">
+        <v>87</v>
+      </c>
       <c r="D124" s="5">
         <v>106</v>
       </c>
@@ -6898,7 +7358,10 @@
       <c r="H124" s="5">
         <v>2.89</v>
       </c>
-      <c r="I124" s="1"/>
+      <c r="I124" s="28">
+        <f t="shared" si="1"/>
+        <v>0.47636401499375264</v>
+      </c>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -6906,13 +7369,15 @@
         <v>122</v>
       </c>
       <c r="N124" s="21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+      <c r="C125" s="31">
+        <v>87</v>
+      </c>
       <c r="D125" s="5">
         <v>1</v>
       </c>
@@ -6928,7 +7393,10 @@
       <c r="H125" s="5">
         <v>1.22</v>
       </c>
-      <c r="I125" s="1"/>
+      <c r="I125" s="28">
+        <f t="shared" si="1"/>
+        <v>0.192628071636818</v>
+      </c>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -6942,9 +7410,9 @@
         <v>2006</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C126" s="5">
+        <v>194</v>
+      </c>
+      <c r="C126" s="31">
         <v>88</v>
       </c>
       <c r="D126" s="5">
@@ -6962,7 +7430,10 @@
       <c r="H126" s="5">
         <v>2.64</v>
       </c>
-      <c r="I126" s="1"/>
+      <c r="I126" s="28">
+        <f t="shared" si="1"/>
+        <v>0.41128696376509793</v>
+      </c>
       <c r="J126" s="5"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -6970,7 +7441,7 @@
         <v>124</v>
       </c>
       <c r="N126" s="21" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6978,9 +7449,9 @@
         <v>2007</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C127" s="5">
+        <v>196</v>
+      </c>
+      <c r="C127" s="31">
         <v>89</v>
       </c>
       <c r="D127" s="5">
@@ -6998,7 +7469,10 @@
       <c r="H127" s="5">
         <v>6.18</v>
       </c>
-      <c r="I127" s="1"/>
+      <c r="I127" s="28">
+        <f t="shared" si="1"/>
+        <v>1.1141191170345688</v>
+      </c>
       <c r="J127" s="5"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
@@ -7006,7 +7480,7 @@
         <v>125</v>
       </c>
       <c r="N127" s="21" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -7014,9 +7488,9 @@
         <v>2008</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C128" s="5">
+        <v>198</v>
+      </c>
+      <c r="C128" s="31">
         <v>90</v>
       </c>
       <c r="D128" s="5">
@@ -7034,7 +7508,10 @@
       <c r="H128" s="5">
         <v>4.7300000000000004</v>
       </c>
-      <c r="I128" s="1"/>
+      <c r="I128" s="28">
+        <f t="shared" si="1"/>
+        <v>0.89025406080799685</v>
+      </c>
       <c r="J128" s="5"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -7042,7 +7519,7 @@
         <v>126</v>
       </c>
       <c r="N128" s="21" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -7050,9 +7527,9 @@
         <v>2009</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C129" s="5">
+        <v>200</v>
+      </c>
+      <c r="C129" s="31">
         <v>91</v>
       </c>
       <c r="D129" s="5">
@@ -7070,7 +7547,10 @@
       <c r="H129" s="5">
         <v>3.92</v>
       </c>
-      <c r="I129" s="1"/>
+      <c r="I129" s="28">
+        <f t="shared" si="1"/>
+        <v>0.53623490212411484</v>
+      </c>
       <c r="J129" s="5"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -7078,7 +7558,7 @@
         <v>127</v>
       </c>
       <c r="N129" s="21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -7086,9 +7566,9 @@
         <v>2010</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C130" s="5">
+        <v>202</v>
+      </c>
+      <c r="C130" s="31">
         <v>92</v>
       </c>
       <c r="D130" s="5">
@@ -7106,7 +7586,10 @@
       <c r="H130" s="5">
         <v>1.79</v>
       </c>
-      <c r="I130" s="1"/>
+      <c r="I130" s="28">
+        <f t="shared" si="1"/>
+        <v>0.26291128696376515</v>
+      </c>
       <c r="J130" s="5"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -7114,7 +7597,7 @@
         <v>128</v>
       </c>
       <c r="N130" s="21" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -7122,9 +7605,9 @@
         <v>2000</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C131" s="5">
+        <v>204</v>
+      </c>
+      <c r="C131" s="31">
         <v>93</v>
       </c>
       <c r="D131" s="5">
@@ -7142,7 +7625,10 @@
       <c r="H131" s="5">
         <v>11.92</v>
       </c>
-      <c r="I131" s="1"/>
+      <c r="I131" s="28">
+        <f t="shared" si="1"/>
+        <v>2.5874635568513122</v>
+      </c>
       <c r="J131" s="5"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -7150,7 +7636,7 @@
         <v>129</v>
       </c>
       <c r="N131" s="21" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -7158,9 +7644,9 @@
         <v>2010</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C132" s="5">
+        <v>206</v>
+      </c>
+      <c r="C132" s="31">
         <v>94</v>
       </c>
       <c r="D132" s="5">
@@ -7178,7 +7664,10 @@
       <c r="H132" s="5">
         <v>4.42</v>
       </c>
-      <c r="I132" s="1"/>
+      <c r="I132" s="28">
+        <f t="shared" ref="I132:I195" si="2">(H132-G132)/(1.96^2)</f>
+        <v>0.85120783007080392</v>
+      </c>
       <c r="J132" s="5"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -7186,7 +7675,7 @@
         <v>130</v>
       </c>
       <c r="N132" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -7194,9 +7683,9 @@
         <v>2005</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C133" s="5">
+        <v>208</v>
+      </c>
+      <c r="C133" s="31">
         <v>95</v>
       </c>
       <c r="D133" s="5">
@@ -7214,7 +7703,10 @@
       <c r="H133" s="5">
         <v>1.21</v>
       </c>
-      <c r="I133" s="1"/>
+      <c r="I133" s="28">
+        <f t="shared" si="2"/>
+        <v>0.17180341524364848</v>
+      </c>
       <c r="J133" s="5"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -7222,7 +7714,7 @@
         <v>131</v>
       </c>
       <c r="N133" s="21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -7230,9 +7722,9 @@
         <v>2010</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C134" s="5">
+        <v>210</v>
+      </c>
+      <c r="C134" s="31">
         <v>96</v>
       </c>
       <c r="D134" s="5">
@@ -7250,7 +7742,10 @@
       <c r="H134" s="5">
         <v>1.43</v>
       </c>
-      <c r="I134" s="1"/>
+      <c r="I134" s="28">
+        <f t="shared" si="2"/>
+        <v>0.1613910870470637</v>
+      </c>
       <c r="J134" s="5"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -7258,7 +7753,7 @@
         <v>132</v>
       </c>
       <c r="N134" s="21" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -7266,9 +7761,9 @@
         <v>2006</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C135" s="5">
+        <v>212</v>
+      </c>
+      <c r="C135" s="31">
         <v>97</v>
       </c>
       <c r="D135" s="5">
@@ -7286,7 +7781,10 @@
       <c r="H135" s="5">
         <v>3.4</v>
       </c>
-      <c r="I135" s="1"/>
+      <c r="I135" s="28">
+        <f t="shared" si="2"/>
+        <v>0.60912119950020827</v>
+      </c>
       <c r="J135" s="5"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
@@ -7294,7 +7792,7 @@
         <v>133</v>
       </c>
       <c r="N135" s="21" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -7302,9 +7800,9 @@
         <v>2003</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C136" s="5">
+        <v>214</v>
+      </c>
+      <c r="C136" s="31">
         <v>98</v>
       </c>
       <c r="D136" s="5">
@@ -7322,7 +7820,10 @@
       <c r="H136" s="5">
         <v>2.67</v>
       </c>
-      <c r="I136" s="1"/>
+      <c r="I136" s="28">
+        <f t="shared" si="2"/>
+        <v>0.61693044564764687</v>
+      </c>
       <c r="J136" s="5"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -7334,7 +7835,9 @@
     <row r="137" spans="1:14">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
+      <c r="C137" s="31">
+        <v>98</v>
+      </c>
       <c r="D137" s="5">
         <v>4</v>
       </c>
@@ -7350,7 +7853,10 @@
       <c r="H137" s="5">
         <v>0.42</v>
       </c>
-      <c r="I137" s="1"/>
+      <c r="I137" s="28">
+        <f t="shared" si="2"/>
+        <v>9.1107871720116626E-2</v>
+      </c>
       <c r="J137" s="5"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -7358,13 +7864,15 @@
         <v>135</v>
       </c>
       <c r="N137" s="21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
+      <c r="C138" s="31">
+        <v>98</v>
+      </c>
       <c r="D138" s="5">
         <v>1</v>
       </c>
@@ -7380,7 +7888,10 @@
       <c r="H138" s="5">
         <v>0.47</v>
       </c>
-      <c r="I138" s="1"/>
+      <c r="I138" s="28">
+        <f t="shared" si="2"/>
+        <v>0.10152019991670137</v>
+      </c>
       <c r="J138" s="5"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -7388,7 +7899,7 @@
         <v>136</v>
       </c>
       <c r="N138" s="21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -7396,9 +7907,9 @@
         <v>2002</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C139" s="5">
+        <v>217</v>
+      </c>
+      <c r="C139" s="31">
         <v>99</v>
       </c>
       <c r="D139" s="5">
@@ -7416,7 +7927,10 @@
       <c r="H139" s="5">
         <v>2.33</v>
       </c>
-      <c r="I139" s="1"/>
+      <c r="I139" s="28">
+        <f t="shared" si="2"/>
+        <v>0.48937942523948363</v>
+      </c>
       <c r="J139" s="5"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -7424,7 +7938,7 @@
         <v>137</v>
       </c>
       <c r="N139" s="21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -7432,9 +7946,9 @@
         <v>2011</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C140" s="5">
+        <v>219</v>
+      </c>
+      <c r="C140" s="31">
         <v>100</v>
       </c>
       <c r="D140" s="5">
@@ -7452,7 +7966,10 @@
       <c r="H140" s="5">
         <v>2.69</v>
       </c>
-      <c r="I140" s="1"/>
+      <c r="I140" s="28">
+        <f t="shared" si="2"/>
+        <v>0.41649312786339027</v>
+      </c>
       <c r="J140" s="5"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -7460,7 +7977,7 @@
         <v>138</v>
       </c>
       <c r="N140" s="21" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -7468,9 +7985,9 @@
         <v>2009</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C141" s="5">
+        <v>221</v>
+      </c>
+      <c r="C141" s="31">
         <v>101</v>
       </c>
       <c r="D141" s="5">
@@ -7488,7 +8005,10 @@
       <c r="H141" s="5">
         <v>4.4800000000000004</v>
       </c>
-      <c r="I141" s="1"/>
+      <c r="I141" s="28">
+        <f t="shared" si="2"/>
+        <v>0.86682632236568113</v>
+      </c>
       <c r="J141" s="5"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -7496,7 +8016,7 @@
         <v>139</v>
       </c>
       <c r="N141" s="21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -7504,9 +8024,9 @@
         <v>2007</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="C142" s="5">
+        <v>223</v>
+      </c>
+      <c r="C142" s="31">
         <v>102</v>
       </c>
       <c r="D142" s="5">
@@ -7524,7 +8044,10 @@
       <c r="H142" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="I142" s="1"/>
+      <c r="I142" s="28">
+        <f t="shared" si="2"/>
+        <v>0.1613910870470637</v>
+      </c>
       <c r="J142" s="5"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -7532,7 +8055,7 @@
         <v>140</v>
       </c>
       <c r="N142" s="21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -7540,9 +8063,9 @@
         <v>2009</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C143" s="5">
+        <v>225</v>
+      </c>
+      <c r="C143" s="31">
         <v>103</v>
       </c>
       <c r="D143" s="5">
@@ -7560,7 +8083,10 @@
       <c r="H143" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I143" s="1"/>
+      <c r="I143" s="28">
+        <f t="shared" si="2"/>
+        <v>0.54144106622240751</v>
+      </c>
       <c r="J143" s="5"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -7568,13 +8094,15 @@
         <v>141</v>
       </c>
       <c r="N143" s="21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
+      <c r="C144" s="31">
+        <v>103</v>
+      </c>
       <c r="D144" s="5">
         <v>101</v>
       </c>
@@ -7590,7 +8118,10 @@
       <c r="H144" s="5">
         <v>2.97</v>
       </c>
-      <c r="I144" s="1"/>
+      <c r="I144" s="28">
+        <f t="shared" si="2"/>
+        <v>0.35922532278217417</v>
+      </c>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -7598,13 +8129,15 @@
         <v>142</v>
       </c>
       <c r="N144" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
+      <c r="C145" s="31">
+        <v>103</v>
+      </c>
       <c r="D145" s="5">
         <v>13</v>
       </c>
@@ -7620,7 +8153,10 @@
       <c r="H145" s="5">
         <v>0.93</v>
       </c>
-      <c r="I145" s="1"/>
+      <c r="I145" s="28">
+        <f t="shared" si="2"/>
+        <v>0.11193252811328615</v>
+      </c>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -7628,7 +8164,7 @@
         <v>143</v>
       </c>
       <c r="N145" s="21" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -7636,9 +8172,9 @@
         <v>2010</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="C146" s="5">
+        <v>229</v>
+      </c>
+      <c r="C146" s="31">
         <v>104</v>
       </c>
       <c r="D146" s="5">
@@ -7656,7 +8192,10 @@
       <c r="H146" s="5">
         <v>89.37</v>
       </c>
-      <c r="I146" s="1"/>
+      <c r="I146" s="28">
+        <f t="shared" si="2"/>
+        <v>21.209912536443152</v>
+      </c>
       <c r="J146" s="5"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -7664,7 +8203,7 @@
         <v>144</v>
       </c>
       <c r="N146" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -7672,9 +8211,9 @@
         <v>2010</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C147" s="5">
+        <v>231</v>
+      </c>
+      <c r="C147" s="31">
         <v>105</v>
       </c>
       <c r="D147" s="5">
@@ -7692,7 +8231,10 @@
       <c r="H147" s="5">
         <v>2.11</v>
       </c>
-      <c r="I147" s="1"/>
+      <c r="I147" s="28">
+        <f t="shared" si="2"/>
+        <v>0.32798833819241979</v>
+      </c>
       <c r="J147" s="5"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -7700,7 +8242,7 @@
         <v>145</v>
       </c>
       <c r="N147" s="21" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -7708,9 +8250,9 @@
         <v>2004</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="C148" s="5">
+        <v>233</v>
+      </c>
+      <c r="C148" s="31">
         <v>106</v>
       </c>
       <c r="D148" s="5">
@@ -7728,7 +8270,10 @@
       <c r="H148" s="5">
         <v>0.41</v>
       </c>
-      <c r="I148" s="1"/>
+      <c r="I148" s="28">
+        <f t="shared" si="2"/>
+        <v>6.5077051228654731E-2</v>
+      </c>
       <c r="J148" s="5"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -7736,7 +8281,7 @@
         <v>146</v>
       </c>
       <c r="N148" s="21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -7744,9 +8289,9 @@
         <v>2007</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C149" s="5">
+        <v>235</v>
+      </c>
+      <c r="C149" s="31">
         <v>107</v>
       </c>
       <c r="D149" s="5">
@@ -7764,7 +8309,10 @@
       <c r="H149" s="5">
         <v>8.42</v>
       </c>
-      <c r="I149" s="1"/>
+      <c r="I149" s="28">
+        <f t="shared" si="2"/>
+        <v>1.6789879216992922</v>
+      </c>
       <c r="J149" s="5"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -7772,7 +8320,7 @@
         <v>147</v>
       </c>
       <c r="N149" s="21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -7780,9 +8328,9 @@
         <v>2009</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C150" s="5">
+        <v>237</v>
+      </c>
+      <c r="C150" s="31">
         <v>108</v>
       </c>
       <c r="D150" s="5">
@@ -7800,7 +8348,10 @@
       <c r="H150" s="5">
         <v>7.64</v>
       </c>
-      <c r="I150" s="1"/>
+      <c r="I150" s="28">
+        <f t="shared" si="2"/>
+        <v>1.3223656809662643</v>
+      </c>
       <c r="J150" s="5"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
@@ -7808,19 +8359,19 @@
         <v>148</v>
       </c>
       <c r="N150" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="18"/>
       <c r="B151" s="18"/>
-      <c r="C151" s="19"/>
+      <c r="C151" s="33"/>
       <c r="D151" s="19"/>
       <c r="E151" s="19"/>
       <c r="F151" s="19"/>
       <c r="G151" s="19"/>
       <c r="H151" s="19"/>
-      <c r="I151" s="20"/>
+      <c r="I151" s="28"/>
       <c r="J151" s="20"/>
       <c r="K151" s="20"/>
       <c r="L151" s="20"/>
@@ -7828,7 +8379,7 @@
         <v>149</v>
       </c>
       <c r="N151" s="21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -7836,9 +8387,9 @@
         <v>2009</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="C152" s="5">
+        <v>240</v>
+      </c>
+      <c r="C152" s="31">
         <v>109</v>
       </c>
       <c r="D152" s="5">
@@ -7856,7 +8407,10 @@
       <c r="H152" s="5">
         <v>15.93</v>
       </c>
-      <c r="I152" s="1"/>
+      <c r="I152" s="28">
+        <f t="shared" si="2"/>
+        <v>2.990941274468971</v>
+      </c>
       <c r="J152" s="5"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
@@ -7864,7 +8418,7 @@
         <v>150</v>
       </c>
       <c r="N152" s="21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -7872,9 +8426,9 @@
         <v>2010</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="C153" s="5">
+        <v>242</v>
+      </c>
+      <c r="C153" s="31">
         <v>110</v>
       </c>
       <c r="D153" s="5">
@@ -7892,7 +8446,10 @@
       <c r="H153" s="5">
         <v>5.0599999999999996</v>
       </c>
-      <c r="I153" s="1"/>
+      <c r="I153" s="28">
+        <f t="shared" si="2"/>
+        <v>1.059454394002499</v>
+      </c>
       <c r="J153" s="5"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
@@ -7900,7 +8457,7 @@
         <v>151</v>
       </c>
       <c r="N153" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -7908,9 +8465,9 @@
         <v>2010</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C154" s="5">
+        <v>244</v>
+      </c>
+      <c r="C154" s="31">
         <v>111</v>
       </c>
       <c r="D154" s="5">
@@ -7928,7 +8485,10 @@
       <c r="H154" s="5">
         <v>30.75</v>
       </c>
-      <c r="I154" s="1"/>
+      <c r="I154" s="28">
+        <f t="shared" si="2"/>
+        <v>6.2161599333610997</v>
+      </c>
       <c r="J154" s="5"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -7936,7 +8496,7 @@
         <v>152</v>
       </c>
       <c r="N154" s="21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -7944,9 +8504,9 @@
         <v>2011</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C155" s="5">
+        <v>246</v>
+      </c>
+      <c r="C155" s="31">
         <v>112</v>
       </c>
       <c r="D155" s="5">
@@ -7964,7 +8524,10 @@
       <c r="H155" s="5">
         <v>0.46</v>
       </c>
-      <c r="I155" s="1"/>
+      <c r="I155" s="28">
+        <f t="shared" si="2"/>
+        <v>8.3298625572678059E-2</v>
+      </c>
       <c r="J155" s="5"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
@@ -7972,7 +8535,7 @@
         <v>200</v>
       </c>
       <c r="N155" s="22" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -7980,9 +8543,9 @@
         <v>2007</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C156" s="5">
+        <v>248</v>
+      </c>
+      <c r="C156" s="31">
         <v>113</v>
       </c>
       <c r="D156" s="5">
@@ -8000,7 +8563,10 @@
       <c r="H156" s="5">
         <v>0.3</v>
       </c>
-      <c r="I156" s="1"/>
+      <c r="I156" s="28">
+        <f t="shared" si="2"/>
+        <v>7.2886297376093298E-2</v>
+      </c>
       <c r="J156" s="5"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
@@ -8008,7 +8574,7 @@
         <v>300</v>
       </c>
       <c r="N156" s="22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -8016,9 +8582,9 @@
         <v>2000</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C157" s="5">
+        <v>250</v>
+      </c>
+      <c r="C157" s="31">
         <v>114</v>
       </c>
       <c r="D157" s="5">
@@ -8036,7 +8602,10 @@
       <c r="H157" s="5">
         <v>7.97</v>
       </c>
-      <c r="I157" s="1"/>
+      <c r="I157" s="28">
+        <f t="shared" si="2"/>
+        <v>1.6633694294044148</v>
+      </c>
       <c r="J157" s="5"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
@@ -8044,7 +8613,7 @@
         <v>400</v>
       </c>
       <c r="N157" s="22" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -8052,9 +8621,9 @@
         <v>2002</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C158" s="5">
+        <v>252</v>
+      </c>
+      <c r="C158" s="31">
         <v>115</v>
       </c>
       <c r="D158" s="5">
@@ -8072,7 +8641,10 @@
       <c r="H158" s="5">
         <v>2.71</v>
       </c>
-      <c r="I158" s="1"/>
+      <c r="I158" s="28">
+        <f t="shared" si="2"/>
+        <v>0.40087463556851316</v>
+      </c>
       <c r="J158" s="5"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -8080,7 +8652,7 @@
         <v>500</v>
       </c>
       <c r="N158" s="22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -8088,9 +8660,9 @@
         <v>2004</v>
       </c>
       <c r="B159" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="C159" s="5">
+        <v>254</v>
+      </c>
+      <c r="C159" s="31">
         <v>116</v>
       </c>
       <c r="D159" s="5">
@@ -8108,7 +8680,10 @@
       <c r="H159" s="5">
         <v>1.33</v>
       </c>
-      <c r="I159" s="1"/>
+      <c r="I159" s="28">
+        <f t="shared" si="2"/>
+        <v>0.16399416909620995</v>
+      </c>
       <c r="J159" s="5"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
@@ -8116,7 +8691,7 @@
         <v>600</v>
       </c>
       <c r="N159" s="22" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -8124,9 +8699,9 @@
         <v>2001</v>
       </c>
       <c r="B160" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C160" s="5">
+        <v>256</v>
+      </c>
+      <c r="C160" s="31">
         <v>117</v>
       </c>
       <c r="D160" s="5">
@@ -8144,7 +8719,10 @@
       <c r="H160" s="5">
         <v>99.25</v>
       </c>
-      <c r="I160" s="1"/>
+      <c r="I160" s="28">
+        <f t="shared" si="2"/>
+        <v>25.799146189087882</v>
+      </c>
       <c r="J160" s="5"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
@@ -8152,7 +8730,7 @@
         <v>700</v>
       </c>
       <c r="N160" s="22" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -8160,9 +8738,9 @@
         <v>2003</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C161" s="5">
+        <v>258</v>
+      </c>
+      <c r="C161" s="31">
         <v>118</v>
       </c>
       <c r="D161" s="5">
@@ -8180,7 +8758,10 @@
       <c r="H161" s="5">
         <v>7.34</v>
       </c>
-      <c r="I161" s="1"/>
+      <c r="I161" s="28">
+        <f t="shared" si="2"/>
+        <v>1.5878800499791754</v>
+      </c>
       <c r="J161" s="5"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
@@ -8188,7 +8769,7 @@
         <v>800</v>
       </c>
       <c r="N161" s="25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -8196,9 +8777,9 @@
         <v>2009</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C162" s="5">
+        <v>260</v>
+      </c>
+      <c r="C162" s="31">
         <v>119</v>
       </c>
       <c r="D162" s="5">
@@ -8216,7 +8797,10 @@
       <c r="H162" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I162" s="1"/>
+      <c r="I162" s="28">
+        <f t="shared" si="2"/>
+        <v>1.8221574344023328E-2</v>
+      </c>
       <c r="J162" s="5"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
@@ -8224,7 +8808,7 @@
         <v>900</v>
       </c>
       <c r="N162" s="22" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -8232,9 +8816,9 @@
         <v>2010</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C163" s="5">
+        <v>262</v>
+      </c>
+      <c r="C163" s="31">
         <v>120</v>
       </c>
       <c r="D163" s="5">
@@ -8252,7 +8836,10 @@
       <c r="H163" s="5">
         <v>5.13</v>
       </c>
-      <c r="I163" s="1"/>
+      <c r="I163" s="28">
+        <f t="shared" si="2"/>
+        <v>0.77832153269471049</v>
+      </c>
       <c r="J163" s="5"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
@@ -8260,7 +8847,7 @@
         <v>1000</v>
       </c>
       <c r="N163" s="22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -8268,9 +8855,9 @@
         <v>2010</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="C164" s="5">
+        <v>264</v>
+      </c>
+      <c r="C164" s="31">
         <v>121</v>
       </c>
       <c r="D164" s="5">
@@ -8288,7 +8875,10 @@
       <c r="H164" s="5">
         <v>3.36</v>
       </c>
-      <c r="I164" s="1"/>
+      <c r="I164" s="28">
+        <f t="shared" si="2"/>
+        <v>0.52842565597667635</v>
+      </c>
       <c r="J164" s="5"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
@@ -8296,7 +8886,7 @@
         <v>1100</v>
       </c>
       <c r="N164" s="22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -8304,9 +8894,9 @@
         <v>2007</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C165" s="5">
+        <v>266</v>
+      </c>
+      <c r="C165" s="31">
         <v>122</v>
       </c>
       <c r="D165" s="5">
@@ -8324,7 +8914,10 @@
       <c r="H165" s="5">
         <v>36.380000000000003</v>
       </c>
-      <c r="I165" s="1"/>
+      <c r="I165" s="28">
+        <f t="shared" si="2"/>
+        <v>6.7029362765514371</v>
+      </c>
       <c r="J165" s="5"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
@@ -8332,13 +8925,15 @@
         <v>1200</v>
       </c>
       <c r="N165" s="22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
+      <c r="C166" s="31">
+        <v>122</v>
+      </c>
       <c r="D166" s="5">
         <v>1</v>
       </c>
@@ -8354,7 +8949,10 @@
       <c r="H166" s="5">
         <v>11.49</v>
       </c>
-      <c r="I166" s="1"/>
+      <c r="I166" s="28">
+        <f t="shared" si="2"/>
+        <v>2.1084964598084133</v>
+      </c>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
@@ -8362,13 +8960,15 @@
         <v>1300</v>
       </c>
       <c r="N166" s="22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
+      <c r="C167" s="31">
+        <v>122</v>
+      </c>
       <c r="D167" s="5">
         <v>23</v>
       </c>
@@ -8384,7 +8984,10 @@
       <c r="H167" s="5">
         <v>4.78</v>
       </c>
-      <c r="I167" s="1"/>
+      <c r="I167" s="28">
+        <f t="shared" si="2"/>
+        <v>0.90326947105372779</v>
+      </c>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
@@ -8394,7 +8997,9 @@
     <row r="168" spans="1:14">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
+      <c r="C168" s="31">
+        <v>122</v>
+      </c>
       <c r="D168" s="5">
         <v>101</v>
       </c>
@@ -8410,7 +9015,10 @@
       <c r="H168" s="5">
         <v>10.49</v>
       </c>
-      <c r="I168" s="1"/>
+      <c r="I168" s="28">
+        <f t="shared" si="2"/>
+        <v>1.6581632653061227</v>
+      </c>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -8420,7 +9028,9 @@
     <row r="169" spans="1:14">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
+      <c r="C169" s="31">
+        <v>122</v>
+      </c>
       <c r="D169" s="5">
         <v>101</v>
       </c>
@@ -8436,7 +9046,10 @@
       <c r="H169" s="5">
         <v>12.76</v>
       </c>
-      <c r="I169" s="1"/>
+      <c r="I169" s="28">
+        <f t="shared" si="2"/>
+        <v>2.0590379008746358</v>
+      </c>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
@@ -8446,7 +9059,9 @@
     <row r="170" spans="1:14">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
+      <c r="C170" s="31">
+        <v>122</v>
+      </c>
       <c r="D170" s="5">
         <v>1</v>
       </c>
@@ -8462,7 +9077,10 @@
       <c r="H170" s="5">
         <v>4.03</v>
       </c>
-      <c r="I170" s="1"/>
+      <c r="I170" s="28">
+        <f t="shared" si="2"/>
+        <v>0.64556434818825503</v>
+      </c>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
@@ -8474,9 +9092,9 @@
         <v>2005</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="C171" s="5">
+        <v>269</v>
+      </c>
+      <c r="C171" s="31">
         <v>123</v>
       </c>
       <c r="D171" s="5">
@@ -8494,7 +9112,10 @@
       <c r="H171" s="5">
         <v>10.84</v>
       </c>
-      <c r="I171" s="1"/>
+      <c r="I171" s="28">
+        <f t="shared" si="2"/>
+        <v>1.9366930445647648</v>
+      </c>
       <c r="J171" s="5"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
@@ -8506,9 +9127,9 @@
         <v>2006</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C172" s="5">
+        <v>270</v>
+      </c>
+      <c r="C172" s="31">
         <v>124</v>
       </c>
       <c r="D172" s="5">
@@ -8526,7 +9147,10 @@
       <c r="H172" s="5">
         <v>2.34</v>
       </c>
-      <c r="I172" s="1"/>
+      <c r="I172" s="28">
+        <f t="shared" si="2"/>
+        <v>0.22907122032486463</v>
+      </c>
       <c r="J172" s="5"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
@@ -8538,9 +9162,9 @@
         <v>2006</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C173" s="5">
+        <v>271</v>
+      </c>
+      <c r="C173" s="31">
         <v>125</v>
       </c>
       <c r="D173" s="5">
@@ -8558,7 +9182,10 @@
       <c r="H173" s="5">
         <v>1.38</v>
       </c>
-      <c r="I173" s="1"/>
+      <c r="I173" s="28">
+        <f t="shared" si="2"/>
+        <v>9.3710953769262778E-2</v>
+      </c>
       <c r="J173" s="5"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
@@ -8568,7 +9195,9 @@
     <row r="174" spans="1:14">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
+      <c r="C174" s="31">
+        <v>125</v>
+      </c>
       <c r="D174" s="5">
         <v>10</v>
       </c>
@@ -8584,7 +9213,10 @@
       <c r="H174" s="5">
         <v>2.2200000000000002</v>
       </c>
-      <c r="I174" s="1"/>
+      <c r="I174" s="28">
+        <f t="shared" si="2"/>
+        <v>0.15618492294877137</v>
+      </c>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
@@ -8594,7 +9226,9 @@
     <row r="175" spans="1:14">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
+      <c r="C175" s="31">
+        <v>125</v>
+      </c>
       <c r="D175" s="5">
         <v>1</v>
       </c>
@@ -8610,7 +9244,10 @@
       <c r="H175" s="5">
         <v>1.87</v>
       </c>
-      <c r="I175" s="1"/>
+      <c r="I175" s="28">
+        <f t="shared" si="2"/>
+        <v>0.13275718450645566</v>
+      </c>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
@@ -8622,9 +9259,9 @@
         <v>2007</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="C176" s="5">
+        <v>272</v>
+      </c>
+      <c r="C176" s="31">
         <v>126</v>
       </c>
       <c r="D176" s="5">
@@ -8642,7 +9279,10 @@
       <c r="H176" s="5">
         <v>4.93</v>
       </c>
-      <c r="I176" s="1"/>
+      <c r="I176" s="28">
+        <f t="shared" si="2"/>
+        <v>0.97615576842982099</v>
+      </c>
       <c r="J176" s="5"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
@@ -8654,9 +9294,9 @@
         <v>2007</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="C177" s="5">
+        <v>273</v>
+      </c>
+      <c r="C177" s="31">
         <v>127</v>
       </c>
       <c r="D177" s="5">
@@ -8674,7 +9314,10 @@
       <c r="H177" s="5">
         <v>1.89</v>
       </c>
-      <c r="I177" s="1"/>
+      <c r="I177" s="28">
+        <f t="shared" si="2"/>
+        <v>0.22386505622657224</v>
+      </c>
       <c r="J177" s="5"/>
     </row>
     <row r="178" spans="1:10">
@@ -8682,9 +9325,9 @@
         <v>2011</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C178" s="5">
+        <v>274</v>
+      </c>
+      <c r="C178" s="31">
         <v>128</v>
       </c>
       <c r="D178" s="5">
@@ -8702,7 +9345,10 @@
       <c r="H178" s="5">
         <v>4.7</v>
       </c>
-      <c r="I178" s="1"/>
+      <c r="I178" s="28">
+        <f t="shared" si="2"/>
+        <v>0.84079550187421925</v>
+      </c>
       <c r="J178" s="5"/>
     </row>
     <row r="179" spans="1:10">
@@ -8710,9 +9356,9 @@
         <v>2011</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="C179" s="5">
+        <v>275</v>
+      </c>
+      <c r="C179" s="31">
         <v>129</v>
       </c>
       <c r="D179" s="5">
@@ -8730,7 +9376,10 @@
       <c r="H179" s="5">
         <v>3.41</v>
       </c>
-      <c r="I179" s="1"/>
+      <c r="I179" s="28">
+        <f t="shared" si="2"/>
+        <v>0.5258225739275304</v>
+      </c>
       <c r="J179" s="5"/>
     </row>
     <row r="180" spans="1:10">
@@ -8738,9 +9387,9 @@
         <v>2011</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C180" s="5">
+        <v>276</v>
+      </c>
+      <c r="C180" s="31">
         <v>130</v>
       </c>
       <c r="D180" s="5">
@@ -8758,13 +9407,18 @@
       <c r="H180" s="5">
         <v>0.31</v>
       </c>
-      <c r="I180" s="1"/>
+      <c r="I180" s="28">
+        <f t="shared" si="2"/>
+        <v>6.7680133277800925E-2</v>
+      </c>
       <c r="J180" s="5"/>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
+      <c r="C181" s="31">
+        <v>130</v>
+      </c>
       <c r="D181" s="5">
         <v>5</v>
       </c>
@@ -8780,13 +9434,18 @@
       <c r="H181" s="5">
         <v>0.59</v>
       </c>
-      <c r="I181" s="1"/>
+      <c r="I181" s="28">
+        <f t="shared" si="2"/>
+        <v>0.13015410245730946</v>
+      </c>
       <c r="J181" s="1"/>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
+      <c r="C182" s="31">
+        <v>130</v>
+      </c>
       <c r="D182" s="5">
         <v>5</v>
       </c>
@@ -8802,13 +9461,18 @@
       <c r="H182" s="5">
         <v>0.4</v>
       </c>
-      <c r="I182" s="1"/>
+      <c r="I182" s="28">
+        <f t="shared" si="2"/>
+        <v>8.5901707621824253E-2</v>
+      </c>
       <c r="J182" s="1"/>
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
+      <c r="C183" s="31">
+        <v>130</v>
+      </c>
       <c r="D183" s="5">
         <v>126</v>
       </c>
@@ -8824,13 +9488,18 @@
       <c r="H183" s="5">
         <v>0.83</v>
       </c>
-      <c r="I183" s="1"/>
+      <c r="I183" s="28">
+        <f t="shared" si="2"/>
+        <v>0.17700957934194086</v>
+      </c>
       <c r="J183" s="1"/>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
+      <c r="C184" s="31">
+        <v>130</v>
+      </c>
       <c r="D184" s="5">
         <v>111</v>
       </c>
@@ -8846,13 +9515,18 @@
       <c r="H184" s="5">
         <v>0.73</v>
       </c>
-      <c r="I184" s="1"/>
+      <c r="I184" s="28">
+        <f t="shared" si="2"/>
+        <v>0.15618492294877134</v>
+      </c>
       <c r="J184" s="1"/>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
+      <c r="C185" s="31">
+        <v>130</v>
+      </c>
       <c r="D185" s="5">
         <v>111</v>
       </c>
@@ -8868,7 +9542,10 @@
       <c r="H185" s="5">
         <v>1.41</v>
       </c>
-      <c r="I185" s="1"/>
+      <c r="I185" s="28">
+        <f t="shared" si="2"/>
+        <v>0.29675135360266558</v>
+      </c>
       <c r="J185" s="1"/>
     </row>
     <row r="186" spans="1:10">
@@ -8876,9 +9553,9 @@
         <v>2007</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="C186" s="5">
+        <v>277</v>
+      </c>
+      <c r="C186" s="31">
         <v>131</v>
       </c>
       <c r="D186" s="5">
@@ -8896,7 +9573,10 @@
       <c r="H186" s="5">
         <v>1.85</v>
       </c>
-      <c r="I186" s="1"/>
+      <c r="I186" s="28">
+        <f t="shared" si="2"/>
+        <v>0.24208663057059562</v>
+      </c>
       <c r="J186" s="5"/>
     </row>
     <row r="187" spans="1:10">
@@ -8904,9 +9584,9 @@
         <v>2007</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="C187" s="5">
+        <v>278</v>
+      </c>
+      <c r="C187" s="31">
         <v>132</v>
       </c>
       <c r="D187" s="5">
@@ -8924,7 +9604,10 @@
       <c r="H187" s="5">
         <v>7.31</v>
       </c>
-      <c r="I187" s="1"/>
+      <c r="I187" s="28">
+        <f t="shared" si="2"/>
+        <v>1.1609745939192002</v>
+      </c>
       <c r="J187" s="5"/>
     </row>
     <row r="188" spans="1:10">
@@ -8932,9 +9615,9 @@
         <v>2008</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C188" s="5">
+        <v>279</v>
+      </c>
+      <c r="C188" s="31">
         <v>133</v>
       </c>
       <c r="D188" s="5">
@@ -8952,7 +9635,10 @@
       <c r="H188" s="5">
         <v>5.93</v>
       </c>
-      <c r="I188" s="1"/>
+      <c r="I188" s="28">
+        <f t="shared" si="2"/>
+        <v>1.0724698042482297</v>
+      </c>
       <c r="J188" s="5"/>
     </row>
     <row r="189" spans="1:10">
@@ -8960,9 +9646,9 @@
         <v>2002</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C189" s="5">
+        <v>280</v>
+      </c>
+      <c r="C189" s="31">
         <v>134</v>
       </c>
       <c r="D189" s="5">
@@ -8980,7 +9666,10 @@
       <c r="H189" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I189" s="1"/>
+      <c r="I189" s="28">
+        <f t="shared" si="2"/>
+        <v>0.1249479383590171</v>
+      </c>
       <c r="J189" s="5"/>
     </row>
     <row r="190" spans="1:10">
@@ -8988,9 +9677,9 @@
         <v>2000</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C190" s="5">
+        <v>281</v>
+      </c>
+      <c r="C190" s="31">
         <v>135</v>
       </c>
       <c r="D190" s="5">
@@ -9008,7 +9697,10 @@
       <c r="H190" s="5">
         <v>45.95</v>
       </c>
-      <c r="I190" s="1"/>
+      <c r="I190" s="28">
+        <f t="shared" si="2"/>
+        <v>11.42232403165348</v>
+      </c>
       <c r="J190" s="5"/>
     </row>
     <row r="191" spans="1:10">
@@ -9016,9 +9708,9 @@
         <v>2008</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="C191" s="5">
+        <v>282</v>
+      </c>
+      <c r="C191" s="31">
         <v>136</v>
       </c>
       <c r="D191" s="5">
@@ -9036,7 +9728,10 @@
       <c r="H191" s="5">
         <v>4.3099999999999996</v>
       </c>
-      <c r="I191" s="1"/>
+      <c r="I191" s="28">
+        <f t="shared" si="2"/>
+        <v>0.66899208663057053</v>
+      </c>
       <c r="J191" s="5"/>
     </row>
     <row r="192" spans="1:10">
@@ -9044,9 +9739,9 @@
         <v>2003</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="C192" s="5">
+        <v>283</v>
+      </c>
+      <c r="C192" s="31">
         <v>137</v>
       </c>
       <c r="D192" s="5">
@@ -9064,7 +9759,10 @@
       <c r="H192" s="5">
         <v>37.89</v>
       </c>
-      <c r="I192" s="1"/>
+      <c r="I192" s="28">
+        <f t="shared" si="2"/>
+        <v>9.7120991253644338</v>
+      </c>
       <c r="J192" s="5"/>
     </row>
     <row r="193" spans="1:10">
@@ -9072,9 +9770,9 @@
         <v>2011</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C193" s="5">
+        <v>284</v>
+      </c>
+      <c r="C193" s="31">
         <v>138</v>
       </c>
       <c r="D193" s="5">
@@ -9092,7 +9790,10 @@
       <c r="H193" s="5">
         <v>5.88</v>
       </c>
-      <c r="I193" s="1"/>
+      <c r="I193" s="28">
+        <f t="shared" si="2"/>
+        <v>1.1531653477717618</v>
+      </c>
       <c r="J193" s="5"/>
     </row>
     <row r="194" spans="1:10">
@@ -9100,9 +9801,9 @@
         <v>2009</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="C194" s="5">
+        <v>285</v>
+      </c>
+      <c r="C194" s="31">
         <v>139</v>
       </c>
       <c r="D194" s="5">
@@ -9120,7 +9821,10 @@
       <c r="H194" s="5">
         <v>0.79</v>
       </c>
-      <c r="I194" s="1"/>
+      <c r="I194" s="28">
+        <f t="shared" si="2"/>
+        <v>0.14316951270304043</v>
+      </c>
       <c r="J194" s="5"/>
     </row>
     <row r="195" spans="1:10">
@@ -9128,9 +9832,9 @@
         <v>2009</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="C195" s="5">
+        <v>286</v>
+      </c>
+      <c r="C195" s="31">
         <v>140</v>
       </c>
       <c r="D195" s="5">
@@ -9148,7 +9852,10 @@
       <c r="H195" s="5">
         <v>0.95</v>
       </c>
-      <c r="I195" s="1"/>
+      <c r="I195" s="28">
+        <f t="shared" si="2"/>
+        <v>0.10412328196584755</v>
+      </c>
       <c r="J195" s="5"/>
     </row>
     <row r="196" spans="1:10">
@@ -9156,9 +9863,9 @@
         <v>2006</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="C196" s="5">
+        <v>287</v>
+      </c>
+      <c r="C196" s="31">
         <v>141</v>
       </c>
       <c r="D196" s="5">
@@ -9176,7 +9883,10 @@
       <c r="H196" s="5">
         <v>1.3</v>
       </c>
-      <c r="I196" s="1"/>
+      <c r="I196" s="28">
+        <f t="shared" ref="I196:I259" si="3">(H196-G196)/(1.96^2)</f>
+        <v>0.16659725114535612</v>
+      </c>
       <c r="J196" s="5"/>
     </row>
     <row r="197" spans="1:10">
@@ -9184,9 +9894,9 @@
         <v>2009</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C197" s="5">
+        <v>288</v>
+      </c>
+      <c r="C197" s="31">
         <v>142</v>
       </c>
       <c r="D197" s="5">
@@ -9204,7 +9914,10 @@
       <c r="H197" s="5">
         <v>3.3</v>
       </c>
-      <c r="I197" s="1"/>
+      <c r="I197" s="28">
+        <f t="shared" si="3"/>
+        <v>0.50239483548521446</v>
+      </c>
       <c r="J197" s="5"/>
     </row>
     <row r="198" spans="1:10">
@@ -9212,9 +9925,9 @@
         <v>2002</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="C198" s="5">
+        <v>289</v>
+      </c>
+      <c r="C198" s="31">
         <v>143</v>
       </c>
       <c r="D198" s="5">
@@ -9232,7 +9945,10 @@
       <c r="H198" s="5">
         <v>13.22</v>
       </c>
-      <c r="I198" s="1"/>
+      <c r="I198" s="28">
+        <f t="shared" si="3"/>
+        <v>2.2022074135776766</v>
+      </c>
       <c r="J198" s="5"/>
     </row>
     <row r="199" spans="1:10">
@@ -9240,9 +9956,9 @@
         <v>2006</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="C199" s="5">
+        <v>290</v>
+      </c>
+      <c r="C199" s="31">
         <v>144</v>
       </c>
       <c r="D199" s="5">
@@ -9260,7 +9976,10 @@
       <c r="H199" s="5">
         <v>1.82</v>
       </c>
-      <c r="I199" s="1"/>
+      <c r="I199" s="28">
+        <f t="shared" si="3"/>
+        <v>0.31757600999583513</v>
+      </c>
       <c r="J199" s="5"/>
     </row>
     <row r="200" spans="1:10">
@@ -9268,9 +9987,9 @@
         <v>2010</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="C200" s="5">
+        <v>291</v>
+      </c>
+      <c r="C200" s="31">
         <v>145</v>
       </c>
       <c r="D200" s="5">
@@ -9288,7 +10007,10 @@
       <c r="H200" s="5">
         <v>3.29</v>
       </c>
-      <c r="I200" s="1"/>
+      <c r="I200" s="28">
+        <f t="shared" si="3"/>
+        <v>0.49979175343606835</v>
+      </c>
       <c r="J200" s="5"/>
     </row>
     <row r="201" spans="1:10">
@@ -9296,9 +10018,9 @@
         <v>2008</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="C201" s="5">
+        <v>292</v>
+      </c>
+      <c r="C201" s="31">
         <v>146</v>
       </c>
       <c r="D201" s="5">
@@ -9316,7 +10038,10 @@
       <c r="H201" s="5">
         <v>28.94</v>
       </c>
-      <c r="I201" s="1"/>
+      <c r="I201" s="28">
+        <f t="shared" si="3"/>
+        <v>6.9137859225322797</v>
+      </c>
       <c r="J201" s="5"/>
     </row>
     <row r="202" spans="1:10">
@@ -9324,9 +10049,9 @@
         <v>2007</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C202" s="5">
+        <v>293</v>
+      </c>
+      <c r="C202" s="31">
         <v>147</v>
       </c>
       <c r="D202" s="5">
@@ -9344,7 +10069,10 @@
       <c r="H202" s="5">
         <v>1.68</v>
       </c>
-      <c r="I202" s="1"/>
+      <c r="I202" s="28">
+        <f t="shared" si="3"/>
+        <v>0.2707205331112037</v>
+      </c>
       <c r="J202" s="5"/>
     </row>
     <row r="203" spans="1:10">
@@ -9352,9 +10080,9 @@
         <v>2009</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C203" s="5">
+        <v>147</v>
+      </c>
+      <c r="C203" s="31">
         <v>148</v>
       </c>
       <c r="D203" s="5">
@@ -9372,7 +10100,10 @@
       <c r="H203" s="5">
         <v>3.11</v>
       </c>
-      <c r="I203" s="1"/>
+      <c r="I203" s="28">
+        <f t="shared" si="3"/>
+        <v>0.51280716368179924</v>
+      </c>
       <c r="J203" s="5"/>
     </row>
     <row r="204" spans="1:10">
@@ -9380,9 +10111,9 @@
         <v>2000</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="C204" s="5">
+        <v>294</v>
+      </c>
+      <c r="C204" s="31">
         <v>149</v>
       </c>
       <c r="D204" s="5">
@@ -9400,7 +10131,10 @@
       <c r="H204" s="5">
         <v>24.13</v>
       </c>
-      <c r="I204" s="1"/>
+      <c r="I204" s="28">
+        <f t="shared" si="3"/>
+        <v>4.9250312369845899</v>
+      </c>
       <c r="J204" s="5"/>
     </row>
     <row r="205" spans="1:10">
@@ -9408,9 +10142,9 @@
         <v>2002</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="C205" s="5">
+        <v>295</v>
+      </c>
+      <c r="C205" s="31">
         <v>150</v>
       </c>
       <c r="D205" s="5">
@@ -9428,7 +10162,10 @@
       <c r="H205" s="5">
         <v>3.83</v>
       </c>
-      <c r="I205" s="1"/>
+      <c r="I205" s="28">
+        <f t="shared" si="3"/>
+        <v>0.73927530195751767</v>
+      </c>
       <c r="J205" s="5"/>
     </row>
     <row r="206" spans="1:10">
@@ -9436,9 +10173,9 @@
         <v>2009</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="C206" s="5">
+        <v>296</v>
+      </c>
+      <c r="C206" s="31">
         <v>151</v>
       </c>
       <c r="D206" s="5">
@@ -9456,13 +10193,18 @@
       <c r="H206" s="5">
         <v>0.97</v>
       </c>
-      <c r="I206" s="1"/>
+      <c r="I206" s="28">
+        <f t="shared" si="3"/>
+        <v>0.20824656393169513</v>
+      </c>
       <c r="J206" s="5"/>
     </row>
     <row r="207" spans="1:10">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
+      <c r="C207" s="31">
+        <v>151</v>
+      </c>
       <c r="D207" s="5">
         <v>101</v>
       </c>
@@ -9478,13 +10220,18 @@
       <c r="H207" s="5">
         <v>1.56</v>
       </c>
-      <c r="I207" s="1"/>
+      <c r="I207" s="28">
+        <f t="shared" si="3"/>
+        <v>0.32538525614327368</v>
+      </c>
       <c r="J207" s="1"/>
     </row>
     <row r="208" spans="1:10">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
+      <c r="C208" s="31">
+        <v>151</v>
+      </c>
       <c r="D208" s="5">
         <v>137</v>
       </c>
@@ -9500,7 +10247,10 @@
       <c r="H208" s="5">
         <v>1.43</v>
       </c>
-      <c r="I208" s="1"/>
+      <c r="I208" s="28">
+        <f t="shared" si="3"/>
+        <v>0.31236984589754269</v>
+      </c>
       <c r="J208" s="1"/>
     </row>
     <row r="209" spans="1:10">
@@ -9508,9 +10258,9 @@
         <v>2009</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="C209" s="5">
+        <v>297</v>
+      </c>
+      <c r="C209" s="31">
         <v>152</v>
       </c>
       <c r="D209" s="5">
@@ -9528,7 +10278,10 @@
       <c r="H209" s="5">
         <v>4.16</v>
       </c>
-      <c r="I209" s="1"/>
+      <c r="I209" s="28">
+        <f t="shared" si="3"/>
+        <v>0.77571845064556455</v>
+      </c>
       <c r="J209" s="5"/>
     </row>
     <row r="210" spans="1:10">
@@ -9536,9 +10289,9 @@
         <v>2010</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C210" s="5">
+        <v>88</v>
+      </c>
+      <c r="C210" s="31">
         <v>153</v>
       </c>
       <c r="D210" s="5">
@@ -9556,7 +10309,10 @@
       <c r="H210" s="5">
         <v>2.54</v>
       </c>
-      <c r="I210" s="1"/>
+      <c r="I210" s="28">
+        <f t="shared" si="3"/>
+        <v>0.41128696376509793</v>
+      </c>
       <c r="J210" s="5"/>
     </row>
     <row r="211" spans="1:10">
@@ -9564,9 +10320,9 @@
         <v>2009</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="C211" s="5">
+        <v>298</v>
+      </c>
+      <c r="C211" s="31">
         <v>154</v>
       </c>
       <c r="D211" s="5">
@@ -9584,7 +10340,10 @@
       <c r="H211" s="5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I211" s="1"/>
+      <c r="I211" s="28">
+        <f t="shared" si="3"/>
+        <v>1.4629321116201581</v>
+      </c>
       <c r="J211" s="5"/>
     </row>
     <row r="212" spans="1:10">
@@ -9592,9 +10351,9 @@
         <v>2009</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="C212" s="5">
+        <v>299</v>
+      </c>
+      <c r="C212" s="31">
         <v>155</v>
       </c>
       <c r="D212" s="5">
@@ -9612,7 +10371,10 @@
       <c r="H212" s="5">
         <v>15.87</v>
       </c>
-      <c r="I212" s="1"/>
+      <c r="I212" s="28">
+        <f t="shared" si="3"/>
+        <v>2.6187005414410662</v>
+      </c>
       <c r="J212" s="5"/>
     </row>
     <row r="213" spans="1:10">
@@ -9620,9 +10382,9 @@
         <v>2008</v>
       </c>
       <c r="B213" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="C213" s="5">
+        <v>300</v>
+      </c>
+      <c r="C213" s="31">
         <v>156</v>
       </c>
       <c r="D213" s="5">
@@ -9640,7 +10402,10 @@
       <c r="H213" s="5">
         <v>2.71</v>
       </c>
-      <c r="I213" s="1"/>
+      <c r="I213" s="28">
+        <f t="shared" si="3"/>
+        <v>0.26811745106205753</v>
+      </c>
       <c r="J213" s="5"/>
     </row>
     <row r="214" spans="1:10">
@@ -9648,9 +10413,9 @@
         <v>2010</v>
       </c>
       <c r="B214" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="C214" s="5">
+        <v>301</v>
+      </c>
+      <c r="C214" s="31">
         <v>157</v>
       </c>
       <c r="D214" s="5">
@@ -9668,7 +10433,10 @@
       <c r="H214" s="5">
         <v>2.17</v>
       </c>
-      <c r="I214" s="1"/>
+      <c r="I214" s="28">
+        <f t="shared" si="3"/>
+        <v>0.32538525614327368</v>
+      </c>
       <c r="J214" s="5"/>
     </row>
     <row r="215" spans="1:10">
@@ -9676,9 +10444,9 @@
         <v>2009</v>
       </c>
       <c r="B215" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C215" s="5">
+        <v>302</v>
+      </c>
+      <c r="C215" s="31">
         <v>158</v>
       </c>
       <c r="D215" s="5">
@@ -9696,7 +10464,10 @@
       <c r="H215" s="5">
         <v>17.25</v>
       </c>
-      <c r="I215" s="1"/>
+      <c r="I215" s="28">
+        <f t="shared" si="3"/>
+        <v>3.7328196584756355</v>
+      </c>
       <c r="J215" s="5"/>
     </row>
     <row r="216" spans="1:10">
@@ -9704,9 +10475,9 @@
         <v>2011</v>
       </c>
       <c r="B216" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="C216" s="5">
+        <v>303</v>
+      </c>
+      <c r="C216" s="31">
         <v>159</v>
       </c>
       <c r="D216" s="5">
@@ -9724,7 +10495,10 @@
       <c r="H216" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="I216" s="1"/>
+      <c r="I216" s="28">
+        <f t="shared" si="3"/>
+        <v>0.16659725114535609</v>
+      </c>
       <c r="J216" s="5"/>
     </row>
     <row r="217" spans="1:10">
@@ -9732,9 +10506,9 @@
         <v>2006</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C217" s="5">
+        <v>118</v>
+      </c>
+      <c r="C217" s="31">
         <v>160</v>
       </c>
       <c r="D217" s="5">
@@ -9752,13 +10526,18 @@
       <c r="H217" s="5">
         <v>4.59</v>
       </c>
-      <c r="I217" s="1"/>
+      <c r="I217" s="28">
+        <f t="shared" si="3"/>
+        <v>0.87984173261141196</v>
+      </c>
       <c r="J217" s="5"/>
     </row>
     <row r="218" spans="1:10">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
+      <c r="C218" s="31">
+        <v>160</v>
+      </c>
       <c r="D218" s="5">
         <v>118</v>
       </c>
@@ -9774,13 +10553,18 @@
       <c r="H218" s="5">
         <v>335.19</v>
       </c>
-      <c r="I218" s="1"/>
+      <c r="I218" s="28">
+        <f t="shared" si="3"/>
+        <v>85.701270304039994</v>
+      </c>
       <c r="J218" s="1"/>
     </row>
     <row r="219" spans="1:10">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
+      <c r="C219" s="31">
+        <v>160</v>
+      </c>
       <c r="D219" s="5">
         <v>5</v>
       </c>
@@ -9796,7 +10580,10 @@
       <c r="H219" s="5">
         <v>145.82</v>
       </c>
-      <c r="I219" s="1"/>
+      <c r="I219" s="28">
+        <f t="shared" si="3"/>
+        <v>37.312578092461479</v>
+      </c>
       <c r="J219" s="1"/>
     </row>
     <row r="220" spans="1:10">
@@ -9804,9 +10591,9 @@
         <v>2006</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="C220" s="5">
+        <v>304</v>
+      </c>
+      <c r="C220" s="31">
         <v>161</v>
       </c>
       <c r="D220" s="5">
@@ -9824,7 +10611,10 @@
       <c r="H220" s="5">
         <v>1.94</v>
       </c>
-      <c r="I220" s="1"/>
+      <c r="I220" s="28">
+        <f t="shared" si="3"/>
+        <v>0.27332361516034981</v>
+      </c>
       <c r="J220" s="5"/>
     </row>
     <row r="221" spans="1:10">
@@ -9832,9 +10622,9 @@
         <v>2006</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C221" s="5">
+        <v>305</v>
+      </c>
+      <c r="C221" s="31">
         <v>162</v>
       </c>
       <c r="D221" s="5">
@@ -9852,7 +10642,10 @@
       <c r="H221" s="5">
         <v>1.78</v>
       </c>
-      <c r="I221" s="1"/>
+      <c r="I221" s="28">
+        <f t="shared" si="3"/>
+        <v>0.27592669720949609</v>
+      </c>
       <c r="J221" s="5"/>
     </row>
     <row r="222" spans="1:10">
@@ -9860,9 +10653,9 @@
         <v>2007</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C222" s="5">
+        <v>306</v>
+      </c>
+      <c r="C222" s="31">
         <v>163</v>
       </c>
       <c r="D222" s="5">
@@ -9880,7 +10673,10 @@
       <c r="H222" s="5">
         <v>4.34</v>
       </c>
-      <c r="I222" s="1"/>
+      <c r="I222" s="28">
+        <f t="shared" si="3"/>
+        <v>0.85381091211995008</v>
+      </c>
       <c r="J222" s="5"/>
     </row>
     <row r="223" spans="1:10">
@@ -9888,9 +10684,9 @@
         <v>2011</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="C223" s="5">
+        <v>307</v>
+      </c>
+      <c r="C223" s="31">
         <v>164</v>
       </c>
       <c r="D223" s="5">
@@ -9908,7 +10704,10 @@
       <c r="H223" s="5">
         <v>23.25</v>
       </c>
-      <c r="I223" s="1"/>
+      <c r="I223" s="28">
+        <f t="shared" si="3"/>
+        <v>5.0682007496876302</v>
+      </c>
       <c r="J223" s="5"/>
     </row>
     <row r="224" spans="1:10">
@@ -9916,9 +10715,9 @@
         <v>2010</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="C224" s="5">
+        <v>308</v>
+      </c>
+      <c r="C224" s="31">
         <v>165</v>
       </c>
       <c r="D224" s="5">
@@ -9936,13 +10735,18 @@
       <c r="H224" s="5">
         <v>5.22</v>
       </c>
-      <c r="I224" s="1"/>
+      <c r="I224" s="28">
+        <f t="shared" si="3"/>
+        <v>0.81476468138275726</v>
+      </c>
       <c r="J224" s="5"/>
     </row>
     <row r="225" spans="1:10">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
+      <c r="C225" s="31">
+        <v>165</v>
+      </c>
       <c r="D225" s="5">
         <v>105</v>
       </c>
@@ -9958,13 +10762,18 @@
       <c r="H225" s="5">
         <v>2.93</v>
       </c>
-      <c r="I225" s="1"/>
+      <c r="I225" s="28">
+        <f t="shared" si="3"/>
+        <v>0.44773011245314459</v>
+      </c>
       <c r="J225" s="1"/>
     </row>
     <row r="226" spans="1:10">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
+      <c r="C226" s="31">
+        <v>165</v>
+      </c>
       <c r="D226" s="5">
         <v>101</v>
       </c>
@@ -9980,7 +10789,10 @@
       <c r="H226" s="5">
         <v>0.9</v>
       </c>
-      <c r="I226" s="1"/>
+      <c r="I226" s="28">
+        <f t="shared" si="3"/>
+        <v>0.14056643065389424</v>
+      </c>
       <c r="J226" s="1"/>
     </row>
     <row r="227" spans="1:10">
@@ -9988,9 +10800,9 @@
         <v>2005</v>
       </c>
       <c r="B227" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="C227" s="5">
+        <v>309</v>
+      </c>
+      <c r="C227" s="31">
         <v>166</v>
       </c>
       <c r="D227" s="5">
@@ -10008,7 +10820,10 @@
       <c r="H227" s="5">
         <v>12.8</v>
       </c>
-      <c r="I227" s="1"/>
+      <c r="I227" s="28">
+        <f t="shared" si="3"/>
+        <v>2.6473344439816748</v>
+      </c>
       <c r="J227" s="5"/>
     </row>
     <row r="228" spans="1:10">
@@ -10016,9 +10831,9 @@
         <v>2006</v>
       </c>
       <c r="B228" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="C228" s="5">
+        <v>310</v>
+      </c>
+      <c r="C228" s="31">
         <v>167</v>
       </c>
       <c r="D228" s="5">
@@ -10036,7 +10851,10 @@
       <c r="H228" s="5">
         <v>2.06</v>
       </c>
-      <c r="I228" s="1"/>
+      <c r="I228" s="28">
+        <f t="shared" si="3"/>
+        <v>0.26030820491461892</v>
+      </c>
       <c r="J228" s="5"/>
     </row>
     <row r="229" spans="1:10">
@@ -10044,9 +10862,9 @@
         <v>2006</v>
       </c>
       <c r="B229" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="C229" s="5">
+        <v>271</v>
+      </c>
+      <c r="C229" s="31">
         <v>168</v>
       </c>
       <c r="D229" s="5">
@@ -10064,13 +10882,18 @@
       <c r="H229" s="5">
         <v>1.38</v>
       </c>
-      <c r="I229" s="1"/>
+      <c r="I229" s="28">
+        <f t="shared" si="3"/>
+        <v>9.3710953769262778E-2</v>
+      </c>
       <c r="J229" s="5"/>
     </row>
     <row r="230" spans="1:10">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
+      <c r="C230" s="31">
+        <v>168</v>
+      </c>
       <c r="D230" s="5">
         <v>10</v>
       </c>
@@ -10086,13 +10909,18 @@
       <c r="H230" s="5">
         <v>2.2200000000000002</v>
       </c>
-      <c r="I230" s="1"/>
+      <c r="I230" s="28">
+        <f t="shared" si="3"/>
+        <v>0.15618492294877137</v>
+      </c>
       <c r="J230" s="1"/>
     </row>
     <row r="231" spans="1:10">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
+      <c r="C231" s="31">
+        <v>168</v>
+      </c>
       <c r="D231" s="5">
         <v>1</v>
       </c>
@@ -10108,7 +10936,10 @@
       <c r="H231" s="5">
         <v>1.87</v>
       </c>
-      <c r="I231" s="1"/>
+      <c r="I231" s="28">
+        <f t="shared" si="3"/>
+        <v>0.13275718450645566</v>
+      </c>
       <c r="J231" s="1"/>
     </row>
     <row r="232" spans="1:10">
@@ -10116,9 +10947,9 @@
         <v>2011</v>
       </c>
       <c r="B232" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="C232" s="5">
+        <v>311</v>
+      </c>
+      <c r="C232" s="31">
         <v>169</v>
       </c>
       <c r="D232" s="5">
@@ -10136,13 +10967,18 @@
       <c r="H232" s="5">
         <v>22.99</v>
       </c>
-      <c r="I232" s="1"/>
+      <c r="I232" s="28">
+        <f t="shared" si="3"/>
+        <v>5.0786130778842145</v>
+      </c>
       <c r="J232" s="5"/>
     </row>
     <row r="233" spans="1:10">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
+      <c r="C233" s="31">
+        <v>169</v>
+      </c>
       <c r="D233" s="5">
         <v>35</v>
       </c>
@@ -10158,13 +10994,18 @@
       <c r="H233" s="5">
         <v>6.57</v>
       </c>
-      <c r="I233" s="1"/>
+      <c r="I233" s="28">
+        <f t="shared" si="3"/>
+        <v>1.2911286963765098</v>
+      </c>
       <c r="J233" s="1"/>
     </row>
     <row r="234" spans="1:10">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
+      <c r="C234" s="31">
+        <v>169</v>
+      </c>
       <c r="D234" s="5">
         <v>0</v>
       </c>
@@ -10180,7 +11021,10 @@
       <c r="H234" s="5">
         <v>0.99</v>
       </c>
-      <c r="I234" s="1"/>
+      <c r="I234" s="28">
+        <f t="shared" si="3"/>
+        <v>0.22386505622657227</v>
+      </c>
       <c r="J234" s="1"/>
     </row>
     <row r="235" spans="1:10">
@@ -10188,9 +11032,9 @@
         <v>2011</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="C235" s="5">
+        <v>312</v>
+      </c>
+      <c r="C235" s="31">
         <v>170</v>
       </c>
       <c r="D235" s="5">
@@ -10208,7 +11052,10 @@
       <c r="H235" s="5">
         <v>8</v>
       </c>
-      <c r="I235" s="1"/>
+      <c r="I235" s="28">
+        <f t="shared" si="3"/>
+        <v>1.7206372344856311</v>
+      </c>
       <c r="J235" s="5"/>
     </row>
     <row r="236" spans="1:10">
@@ -10216,9 +11063,9 @@
         <v>2004</v>
       </c>
       <c r="B236" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="C236" s="5">
+        <v>313</v>
+      </c>
+      <c r="C236" s="31">
         <v>171</v>
       </c>
       <c r="D236" s="5">
@@ -10236,7 +11083,10 @@
       <c r="H236" s="5">
         <v>3.85</v>
       </c>
-      <c r="I236" s="1"/>
+      <c r="I236" s="28">
+        <f t="shared" si="3"/>
+        <v>0.9188879633486049</v>
+      </c>
       <c r="J236" s="5"/>
     </row>
     <row r="237" spans="1:10">
@@ -10244,9 +11094,9 @@
         <v>2011</v>
       </c>
       <c r="B237" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="C237" s="5">
+        <v>314</v>
+      </c>
+      <c r="C237" s="31">
         <v>172</v>
       </c>
       <c r="D237" s="5">
@@ -10264,7 +11114,10 @@
       <c r="H237" s="5">
         <v>0.97</v>
       </c>
-      <c r="I237" s="1"/>
+      <c r="I237" s="28">
+        <f t="shared" si="3"/>
+        <v>0.10412328196584758</v>
+      </c>
       <c r="J237" s="5"/>
     </row>
     <row r="238" spans="1:10">
@@ -10272,9 +11125,9 @@
         <v>2010</v>
       </c>
       <c r="B238" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="C238" s="5">
+        <v>315</v>
+      </c>
+      <c r="C238" s="31">
         <v>173</v>
       </c>
       <c r="D238" s="5">
@@ -10292,13 +11145,18 @@
       <c r="H238" s="5">
         <v>13.04</v>
       </c>
-      <c r="I238" s="1"/>
+      <c r="I238" s="28">
+        <f t="shared" si="3"/>
+        <v>3.259058725531029</v>
+      </c>
       <c r="J238" s="5"/>
     </row>
     <row r="239" spans="1:10">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
+      <c r="C239" s="31">
+        <v>173</v>
+      </c>
       <c r="D239" s="5">
         <v>133</v>
       </c>
@@ -10314,13 +11172,18 @@
       <c r="H239" s="5">
         <v>25.26</v>
       </c>
-      <c r="I239" s="1"/>
+      <c r="I239" s="28">
+        <f t="shared" si="3"/>
+        <v>6.3931695127030412</v>
+      </c>
       <c r="J239" s="1"/>
     </row>
     <row r="240" spans="1:10">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
+      <c r="C240" s="31">
+        <v>173</v>
+      </c>
       <c r="D240" s="5">
         <v>118</v>
       </c>
@@ -10336,7 +11199,10 @@
       <c r="H240" s="5">
         <v>4.32</v>
       </c>
-      <c r="I240" s="1"/>
+      <c r="I240" s="28">
+        <f t="shared" si="3"/>
+        <v>1.1011037067888383</v>
+      </c>
       <c r="J240" s="1"/>
     </row>
     <row r="241" spans="1:10">
@@ -10344,9 +11210,9 @@
         <v>2006</v>
       </c>
       <c r="B241" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="C241" s="5">
+        <v>316</v>
+      </c>
+      <c r="C241" s="31">
         <v>174</v>
       </c>
       <c r="D241" s="5">
@@ -10364,7 +11230,10 @@
       <c r="H241" s="5">
         <v>6.17</v>
       </c>
-      <c r="I241" s="1"/>
+      <c r="I241" s="28">
+        <f t="shared" si="3"/>
+        <v>0.91628488129945862</v>
+      </c>
       <c r="J241" s="5"/>
     </row>
     <row r="242" spans="1:10">
@@ -10372,9 +11241,9 @@
         <v>2010</v>
       </c>
       <c r="B242" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="C242" s="5">
+        <v>317</v>
+      </c>
+      <c r="C242" s="31">
         <v>175</v>
       </c>
       <c r="D242" s="5">
@@ -10392,7 +11261,10 @@
       <c r="H242" s="5">
         <v>1.91</v>
       </c>
-      <c r="I242" s="1"/>
+      <c r="I242" s="28">
+        <f t="shared" si="3"/>
+        <v>0.22126197417742605</v>
+      </c>
       <c r="J242" s="5"/>
     </row>
     <row r="243" spans="1:10">
@@ -10400,9 +11272,9 @@
         <v>2005</v>
       </c>
       <c r="B243" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="C243" s="5">
+        <v>318</v>
+      </c>
+      <c r="C243" s="31">
         <v>176</v>
       </c>
       <c r="D243" s="5">
@@ -10420,7 +11292,10 @@
       <c r="H243" s="5">
         <v>2.98</v>
       </c>
-      <c r="I243" s="1"/>
+      <c r="I243" s="28">
+        <f t="shared" si="3"/>
+        <v>0.385256143273636</v>
+      </c>
       <c r="J243" s="5"/>
     </row>
     <row r="244" spans="1:10">
@@ -10428,9 +11303,9 @@
         <v>2004</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="C244" s="5">
+        <v>319</v>
+      </c>
+      <c r="C244" s="31">
         <v>177</v>
       </c>
       <c r="D244" s="5">
@@ -10448,7 +11323,10 @@
       <c r="H244" s="5">
         <v>10.48</v>
       </c>
-      <c r="I244" s="1"/>
+      <c r="I244" s="28">
+        <f t="shared" si="3"/>
+        <v>1.5566430653894212</v>
+      </c>
       <c r="J244" s="5"/>
     </row>
     <row r="245" spans="1:10">
@@ -10456,9 +11334,9 @@
         <v>2008</v>
       </c>
       <c r="B245" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="C245" s="5">
+        <v>320</v>
+      </c>
+      <c r="C245" s="31">
         <v>178</v>
       </c>
       <c r="D245" s="5">
@@ -10476,7 +11354,10 @@
       <c r="H245" s="5">
         <v>9.92</v>
       </c>
-      <c r="I245" s="1"/>
+      <c r="I245" s="28">
+        <f t="shared" si="3"/>
+        <v>2.0356101624323202</v>
+      </c>
       <c r="J245" s="5"/>
     </row>
     <row r="246" spans="1:10">
@@ -10484,9 +11365,9 @@
         <v>2009</v>
       </c>
       <c r="B246" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="C246" s="5">
+        <v>321</v>
+      </c>
+      <c r="C246" s="31">
         <v>179</v>
       </c>
       <c r="D246" s="5">
@@ -10504,7 +11385,10 @@
       <c r="H246" s="5">
         <v>5.0199999999999996</v>
       </c>
-      <c r="I246" s="1"/>
+      <c r="I246" s="28">
+        <f t="shared" si="3"/>
+        <v>0.83558933777592659</v>
+      </c>
       <c r="J246" s="5"/>
     </row>
     <row r="247" spans="1:10">
@@ -10512,9 +11396,9 @@
         <v>2005</v>
       </c>
       <c r="B247" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="C247" s="5">
+        <v>322</v>
+      </c>
+      <c r="C247" s="31">
         <v>180</v>
       </c>
       <c r="D247" s="5">
@@ -10532,7 +11416,10 @@
       <c r="H247" s="5">
         <v>1.62</v>
       </c>
-      <c r="I247" s="1"/>
+      <c r="I247" s="28">
+        <f t="shared" si="3"/>
+        <v>0.22907122032486468</v>
+      </c>
       <c r="J247" s="5"/>
     </row>
     <row r="248" spans="1:10">
@@ -10540,9 +11427,9 @@
         <v>2009</v>
       </c>
       <c r="B248" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="C248" s="5">
+        <v>323</v>
+      </c>
+      <c r="C248" s="31">
         <v>181</v>
       </c>
       <c r="D248" s="5">
@@ -10560,7 +11447,10 @@
       <c r="H248" s="5">
         <v>33.340000000000003</v>
       </c>
-      <c r="I248" s="1"/>
+      <c r="I248" s="28">
+        <f t="shared" si="3"/>
+        <v>7.2131403581840914</v>
+      </c>
       <c r="J248" s="5"/>
     </row>
     <row r="249" spans="1:10">
@@ -10568,9 +11458,9 @@
         <v>2001</v>
       </c>
       <c r="B249" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="C249" s="5">
+        <v>324</v>
+      </c>
+      <c r="C249" s="31">
         <v>182</v>
       </c>
       <c r="D249" s="5">
@@ -10588,7 +11478,10 @@
       <c r="H249" s="5">
         <v>4.0199999999999996</v>
       </c>
-      <c r="I249" s="1"/>
+      <c r="I249" s="28">
+        <f t="shared" si="3"/>
+        <v>0.75749687630154094</v>
+      </c>
       <c r="J249" s="5"/>
     </row>
     <row r="250" spans="1:10">
@@ -10596,9 +11489,9 @@
         <v>2007</v>
       </c>
       <c r="B250" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C250" s="5">
+        <v>325</v>
+      </c>
+      <c r="C250" s="31">
         <v>183</v>
       </c>
       <c r="D250" s="5">
@@ -10616,13 +11509,18 @@
       <c r="H250" s="5">
         <v>11.04</v>
       </c>
-      <c r="I250" s="1"/>
+      <c r="I250" s="28">
+        <f t="shared" si="3"/>
+        <v>2.8009162848812998</v>
+      </c>
       <c r="J250" s="5"/>
     </row>
     <row r="251" spans="1:10">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
+      <c r="C251" s="31">
+        <v>183</v>
+      </c>
       <c r="D251" s="5">
         <v>105</v>
       </c>
@@ -10638,13 +11536,18 @@
       <c r="H251" s="5">
         <v>47.73</v>
       </c>
-      <c r="I251" s="1"/>
+      <c r="I251" s="28">
+        <f t="shared" si="3"/>
+        <v>12.289150354019158</v>
+      </c>
       <c r="J251" s="1"/>
     </row>
     <row r="252" spans="1:10">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
+      <c r="C252" s="31">
+        <v>183</v>
+      </c>
       <c r="D252" s="5">
         <v>1</v>
       </c>
@@ -10660,7 +11563,10 @@
       <c r="H252" s="5">
         <v>26.03</v>
       </c>
-      <c r="I252" s="1"/>
+      <c r="I252" s="28">
+        <f t="shared" si="3"/>
+        <v>6.7315701790920457</v>
+      </c>
       <c r="J252" s="1"/>
     </row>
     <row r="253" spans="1:10">
@@ -10668,9 +11574,9 @@
         <v>2009</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="C253" s="5">
+        <v>326</v>
+      </c>
+      <c r="C253" s="31">
         <v>184</v>
       </c>
       <c r="D253" s="5">
@@ -10688,7 +11594,10 @@
       <c r="H253" s="5">
         <v>10.17</v>
       </c>
-      <c r="I253" s="1"/>
+      <c r="I253" s="28">
+        <f t="shared" si="3"/>
+        <v>2.4208663057059563</v>
+      </c>
       <c r="J253" s="5"/>
     </row>
     <row r="254" spans="1:10">
@@ -10696,9 +11605,9 @@
         <v>2008</v>
       </c>
       <c r="B254" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="C254" s="5">
+        <v>327</v>
+      </c>
+      <c r="C254" s="31">
         <v>185</v>
       </c>
       <c r="D254" s="5">
@@ -10716,13 +11625,18 @@
       <c r="H254" s="5">
         <v>4.4400000000000004</v>
       </c>
-      <c r="I254" s="1"/>
+      <c r="I254" s="28">
+        <f t="shared" si="3"/>
+        <v>0.63515201999167026</v>
+      </c>
       <c r="J254" s="5"/>
     </row>
     <row r="255" spans="1:10">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
+      <c r="C255" s="31">
+        <v>185</v>
+      </c>
       <c r="D255" s="5">
         <v>106</v>
       </c>
@@ -10738,13 +11652,18 @@
       <c r="H255" s="5">
         <v>4.6900000000000004</v>
       </c>
-      <c r="I255" s="1"/>
+      <c r="I255" s="28">
+        <f t="shared" si="3"/>
+        <v>0.67680133277800936</v>
+      </c>
       <c r="J255" s="1"/>
     </row>
     <row r="256" spans="1:10">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
+      <c r="C256" s="31">
+        <v>185</v>
+      </c>
       <c r="D256" s="5">
         <v>10</v>
       </c>
@@ -10760,7 +11679,10 @@
       <c r="H256" s="5">
         <v>1.29</v>
       </c>
-      <c r="I256" s="1"/>
+      <c r="I256" s="28">
+        <f t="shared" si="3"/>
+        <v>0.17700957934194089</v>
+      </c>
       <c r="J256" s="1"/>
     </row>
     <row r="257" spans="1:10">
@@ -10768,9 +11690,9 @@
         <v>2008</v>
       </c>
       <c r="B257" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C257" s="5">
+        <v>328</v>
+      </c>
+      <c r="C257" s="31">
         <v>186</v>
       </c>
       <c r="D257" s="5">
@@ -10788,7 +11710,10 @@
       <c r="H257" s="5">
         <v>59.02</v>
       </c>
-      <c r="I257" s="1"/>
+      <c r="I257" s="28">
+        <f t="shared" si="3"/>
+        <v>15.230633069554354</v>
+      </c>
       <c r="J257" s="5"/>
     </row>
     <row r="258" spans="1:10">
@@ -10796,9 +11721,9 @@
         <v>2004</v>
       </c>
       <c r="B258" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="C258" s="5">
+        <v>329</v>
+      </c>
+      <c r="C258" s="31">
         <v>187</v>
       </c>
       <c r="D258" s="5">
@@ -10816,7 +11741,10 @@
       <c r="H258" s="5">
         <v>7.96</v>
       </c>
-      <c r="I258" s="1"/>
+      <c r="I258" s="28">
+        <f t="shared" si="3"/>
+        <v>1.3431903373594338</v>
+      </c>
       <c r="J258" s="5"/>
     </row>
     <row r="259" spans="1:10">
@@ -10824,9 +11752,9 @@
         <v>2007</v>
       </c>
       <c r="B259" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="C259" s="5">
+        <v>330</v>
+      </c>
+      <c r="C259" s="31">
         <v>188</v>
       </c>
       <c r="D259" s="5">
@@ -10844,7 +11772,10 @@
       <c r="H259" s="5">
         <v>36.69</v>
       </c>
-      <c r="I259" s="1"/>
+      <c r="I259" s="28">
+        <f t="shared" si="3"/>
+        <v>8.7281341107871722</v>
+      </c>
       <c r="J259" s="5"/>
     </row>
     <row r="260" spans="1:10">
@@ -10852,9 +11783,9 @@
         <v>2008</v>
       </c>
       <c r="B260" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="C260" s="5">
+        <v>331</v>
+      </c>
+      <c r="C260" s="31">
         <v>189</v>
       </c>
       <c r="D260" s="5">
@@ -10872,7 +11803,10 @@
       <c r="H260" s="5">
         <v>7.94</v>
       </c>
-      <c r="I260" s="1"/>
+      <c r="I260" s="28">
+        <f t="shared" ref="I260:I272" si="4">(H260-G260)/(1.96^2)</f>
+        <v>1.6269262807163682</v>
+      </c>
       <c r="J260" s="5"/>
     </row>
     <row r="261" spans="1:10">
@@ -10880,9 +11814,9 @@
         <v>2008</v>
       </c>
       <c r="B261" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="C261" s="5">
+        <v>332</v>
+      </c>
+      <c r="C261" s="31">
         <v>190</v>
       </c>
       <c r="D261" s="5">
@@ -10900,7 +11834,10 @@
       <c r="H261" s="5">
         <v>7.81</v>
       </c>
-      <c r="I261" s="1"/>
+      <c r="I261" s="28">
+        <f t="shared" si="4"/>
+        <v>1.5045814244064972</v>
+      </c>
       <c r="J261" s="5"/>
     </row>
     <row r="262" spans="1:10">
@@ -10908,9 +11845,9 @@
         <v>2011</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="C262" s="5">
+        <v>333</v>
+      </c>
+      <c r="C262" s="31">
         <v>191</v>
       </c>
       <c r="D262" s="5">
@@ -10928,7 +11865,10 @@
       <c r="H262" s="5">
         <v>4.54</v>
       </c>
-      <c r="I262" s="1"/>
+      <c r="I262" s="28">
+        <f t="shared" si="4"/>
+        <v>0.80174927113702632</v>
+      </c>
       <c r="J262" s="5"/>
     </row>
     <row r="263" spans="1:10">
@@ -10936,9 +11876,9 @@
         <v>2010</v>
       </c>
       <c r="B263" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="C263" s="5">
+        <v>334</v>
+      </c>
+      <c r="C263" s="31">
         <v>192</v>
       </c>
       <c r="D263" s="5">
@@ -10956,7 +11896,10 @@
       <c r="H263" s="5">
         <v>2.5099999999999998</v>
       </c>
-      <c r="I263" s="1"/>
+      <c r="I263" s="28">
+        <f t="shared" si="4"/>
+        <v>0.34881299458558934</v>
+      </c>
       <c r="J263" s="5"/>
     </row>
     <row r="264" spans="1:10">
@@ -10964,9 +11907,9 @@
         <v>2009</v>
       </c>
       <c r="B264" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C264" s="5">
+        <v>335</v>
+      </c>
+      <c r="C264" s="31">
         <v>193</v>
       </c>
       <c r="D264" s="5">
@@ -10984,7 +11927,10 @@
       <c r="H264" s="5">
         <v>109.68</v>
       </c>
-      <c r="I264" s="1"/>
+      <c r="I264" s="28">
+        <f t="shared" si="4"/>
+        <v>28.264264889629327</v>
+      </c>
       <c r="J264" s="5"/>
     </row>
     <row r="265" spans="1:10">
@@ -10992,9 +11938,9 @@
         <v>2009</v>
       </c>
       <c r="B265" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C265" s="5">
+        <v>336</v>
+      </c>
+      <c r="C265" s="31">
         <v>194</v>
       </c>
       <c r="D265" s="5">
@@ -11012,7 +11958,10 @@
       <c r="H265" s="5">
         <v>2.34</v>
       </c>
-      <c r="I265" s="1"/>
+      <c r="I265" s="28">
+        <f t="shared" si="4"/>
+        <v>0.33579758433985835</v>
+      </c>
       <c r="J265" s="5"/>
     </row>
     <row r="266" spans="1:10">
@@ -11020,9 +11969,9 @@
         <v>2005</v>
       </c>
       <c r="B266" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C266" s="5">
+        <v>337</v>
+      </c>
+      <c r="C266" s="31">
         <v>194</v>
       </c>
       <c r="D266" s="5">
@@ -11040,7 +11989,10 @@
       <c r="H266" s="5">
         <v>10.35</v>
       </c>
-      <c r="I266" s="1"/>
+      <c r="I266" s="28">
+        <f t="shared" si="4"/>
+        <v>1.832569762598917</v>
+      </c>
       <c r="J266" s="5"/>
     </row>
     <row r="267" spans="1:10">
@@ -11048,9 +12000,9 @@
         <v>2004</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C267" s="5">
+        <v>338</v>
+      </c>
+      <c r="C267" s="31">
         <v>196</v>
       </c>
       <c r="D267" s="5">
@@ -11068,7 +12020,10 @@
       <c r="H267" s="5">
         <v>12.79</v>
       </c>
-      <c r="I267" s="1"/>
+      <c r="I267" s="28">
+        <f t="shared" si="4"/>
+        <v>2.6213036234902121</v>
+      </c>
       <c r="J267" s="5"/>
     </row>
     <row r="268" spans="1:10">
@@ -11076,9 +12031,9 @@
         <v>2009</v>
       </c>
       <c r="B268" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="C268" s="5">
+        <v>339</v>
+      </c>
+      <c r="C268" s="31">
         <v>197</v>
       </c>
       <c r="D268" s="5">
@@ -11096,13 +12051,18 @@
       <c r="H268" s="5">
         <v>2.61</v>
       </c>
-      <c r="I268" s="1"/>
+      <c r="I268" s="28">
+        <f t="shared" si="4"/>
+        <v>0.33319450229071218</v>
+      </c>
       <c r="J268" s="5"/>
     </row>
     <row r="269" spans="1:10">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
+      <c r="C269" s="31">
+        <v>197</v>
+      </c>
       <c r="D269" s="5">
         <v>101</v>
       </c>
@@ -11118,13 +12078,18 @@
       <c r="H269" s="5">
         <v>3.45</v>
       </c>
-      <c r="I269" s="1"/>
+      <c r="I269" s="28">
+        <f t="shared" si="4"/>
+        <v>0.4425239483548522</v>
+      </c>
       <c r="J269" s="1"/>
     </row>
     <row r="270" spans="1:10">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
+      <c r="C270" s="31">
+        <v>197</v>
+      </c>
       <c r="D270" s="5">
         <v>14</v>
       </c>
@@ -11140,7 +12105,10 @@
       <c r="H270" s="5">
         <v>1.21</v>
       </c>
-      <c r="I270" s="1"/>
+      <c r="I270" s="28">
+        <f t="shared" si="4"/>
+        <v>0.15358184089962515</v>
+      </c>
       <c r="J270" s="1"/>
     </row>
     <row r="271" spans="1:10">
@@ -11148,9 +12116,9 @@
         <v>2011</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="C271" s="5">
+        <v>340</v>
+      </c>
+      <c r="C271" s="31">
         <v>198</v>
       </c>
       <c r="D271" s="5">
@@ -11168,7 +12136,10 @@
       <c r="H271" s="5">
         <v>2.79</v>
       </c>
-      <c r="I271" s="1"/>
+      <c r="I271" s="28">
+        <f t="shared" si="4"/>
+        <v>0.33840066638900462</v>
+      </c>
       <c r="J271" s="5"/>
     </row>
     <row r="272" spans="1:10">
@@ -11176,9 +12147,9 @@
         <v>2009</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="C272" s="5">
+        <v>341</v>
+      </c>
+      <c r="C272" s="31">
         <v>199</v>
       </c>
       <c r="D272" s="5">
@@ -11196,7 +12167,10 @@
       <c r="H272" s="5">
         <v>5.67</v>
       </c>
-      <c r="I272" s="1"/>
+      <c r="I272" s="28">
+        <f t="shared" si="4"/>
+        <v>1.0047896709704291</v>
+      </c>
       <c r="J272" s="5"/>
     </row>
   </sheetData>
